--- a/tests/regression_data/performance_analysis_evaluate_cascade_throat_win.xlsx
+++ b/tests/regression_data/performance_analysis_evaluate_cascade_throat_win.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015418723086914</v>
+        <v>2.015418723180754</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999961951</v>
+        <v>2.299999999955153</v>
       </c>
       <c r="D2" t="n">
-        <v>2.74074152332184</v>
+        <v>2.740741523221237</v>
       </c>
       <c r="E2" t="n">
-        <v>92.5574065038374</v>
+        <v>92.55740650407078</v>
       </c>
       <c r="F2" t="n">
-        <v>79.08633223917843</v>
+        <v>79.08633224112023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1455429097843235</v>
+        <v>0.1455429097654986</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23187514896276</v>
+        <v>-78.23187515088573</v>
       </c>
       <c r="I2" t="n">
-        <v>136206.7714370251</v>
+        <v>136206.7714353697</v>
       </c>
       <c r="J2" t="n">
-        <v>83.71651594162576</v>
+        <v>83.71651594060829</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.33236352728041</v>
+        <v>-24.33236352413531</v>
       </c>
       <c r="M2" t="n">
-        <v>135.2462140341082</v>
+        <v>135.2462140253617</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372087.3800248545</v>
+        <v>372087.3800236343</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7160580180578224</v>
+        <v>0.7160580180446803</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069490739661347</v>
+        <v>2.069490739682527</v>
       </c>
       <c r="C3" t="n">
-        <v>2.39999999992203</v>
+        <v>2.399999999930794</v>
       </c>
       <c r="D3" t="n">
-        <v>2.743090699585241</v>
+        <v>2.743090699512144</v>
       </c>
       <c r="E3" t="n">
-        <v>92.52973871254721</v>
+        <v>92.52973870942512</v>
       </c>
       <c r="F3" t="n">
-        <v>78.20283649671754</v>
+        <v>78.20283649490565</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1548356497616148</v>
+        <v>0.1548356497526792</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.35767214647915</v>
+        <v>-77.35767214465834</v>
       </c>
       <c r="I3" t="n">
-        <v>140861.8583242987</v>
+        <v>140861.8583172814</v>
       </c>
       <c r="J3" t="n">
-        <v>86.57766338309695</v>
+        <v>86.57766337878391</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.83045650175908</v>
+        <v>-26.83045650033094</v>
       </c>
       <c r="M3" t="n">
-        <v>142.598792632842</v>
+        <v>142.5987926287273</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370432.917868266</v>
+        <v>370432.9178694558</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7037210756149713</v>
+        <v>0.7037210756055948</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.64649732495707</v>
+        <v>80.64649732377757</v>
       </c>
       <c r="D2" t="n">
-        <v>80.64649732495707</v>
+        <v>80.64649732377757</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3132,10 +3132,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.64649732495707</v>
+        <v>80.64649732377757</v>
       </c>
       <c r="H2" t="n">
-        <v>80.64649732495707</v>
+        <v>80.64649732377757</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3144,97 +3144,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3575835818979</v>
+        <v>292.3575835820928</v>
       </c>
       <c r="L2" t="n">
-        <v>132780.6069860028</v>
+        <v>132780.6069863121</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583004415636619</v>
+        <v>1.583004415639248</v>
       </c>
       <c r="N2" t="n">
-        <v>334653.6415476122</v>
+        <v>334653.6415477517</v>
       </c>
       <c r="O2" t="n">
-        <v>418532.5023229967</v>
+        <v>418532.5023231923</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.91734771824</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687432.0723459501</v>
+        <v>-687432.0723464922</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7131410303302</v>
+        <v>717.7131410303389</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.64793165034</v>
+        <v>1006.64793165035</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576982504769</v>
+        <v>1.402576982504766</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980004170135</v>
+        <v>0.9994980004170149</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9112262375766</v>
+        <v>342.911226237691</v>
       </c>
       <c r="W2" t="n">
-        <v>186142.495899618</v>
+        <v>186142.4959000515</v>
       </c>
       <c r="X2" t="n">
-        <v>5.372228384319479e-06</v>
+        <v>5.372228384306969e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132714.6375717634</v>
+        <v>132714.6375720728</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534963876605286e-06</v>
+        <v>7.534963876587722e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433399881338996</v>
+        <v>0.003433399881336709</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817166078004291e-05</v>
+        <v>1.817166078005244e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582469259682696</v>
+        <v>0.02582469259684165</v>
       </c>
       <c r="AD2" t="n">
-        <v>132780.6069860028</v>
+        <v>132780.6069863121</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583004415636619</v>
+        <v>1.583004415639248</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583004415636619</v>
+        <v>1.583004415639248</v>
       </c>
       <c r="AG2" t="n">
-        <v>334653.6415476122</v>
+        <v>334653.6415477517</v>
       </c>
       <c r="AH2" t="n">
-        <v>418532.5023229967</v>
+        <v>418532.5023231923</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.91734771824</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7131410303302</v>
+        <v>717.7131410303389</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.64793165034</v>
+        <v>1006.64793165035</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9112262375766</v>
+        <v>342.911226237691</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980004170135</v>
+        <v>0.9994980004170149</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817166078004291e-05</v>
+        <v>1.817166078005244e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582469259682696</v>
+        <v>0.02582469259684165</v>
       </c>
       <c r="AP2" t="n">
         <v>295.6000000000945</v>
@@ -3423,16 +3423,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.2351818521948399</v>
+        <v>0.2351818521913218</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.2351818521948399</v>
+        <v>0.2351818521913218</v>
       </c>
       <c r="DB2" t="n">
-        <v>183785.2928189186</v>
+        <v>183785.2928164395</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.7407415232512</v>
+        <v>2.740741523215668</v>
       </c>
       <c r="DD2" t="n">
         <v>421784.4310884894</v>
@@ -3481,343 +3481,343 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>268.7506812247261</v>
+        <v>268.7506812437591</v>
       </c>
       <c r="DO2" t="n">
-        <v>110.6475275578909</v>
+        <v>110.6475275648292</v>
       </c>
       <c r="DP2" t="n">
-        <v>244.9164210584503</v>
+        <v>244.9164210762009</v>
       </c>
       <c r="DQ2" t="n">
-        <v>65.68765713577372</v>
+        <v>65.68765713598374</v>
       </c>
       <c r="DR2" t="n">
-        <v>268.7506812247261</v>
+        <v>268.7506812437591</v>
       </c>
       <c r="DS2" t="n">
-        <v>110.6475275578909</v>
+        <v>110.6475275648292</v>
       </c>
       <c r="DT2" t="n">
-        <v>244.9164210584503</v>
+        <v>244.9164210762009</v>
       </c>
       <c r="DU2" t="n">
-        <v>65.68765713577372</v>
+        <v>65.68765713598376</v>
       </c>
       <c r="DV2" t="n">
-        <v>259.5633104315257</v>
+        <v>259.5633104264184</v>
       </c>
       <c r="DW2" t="n">
-        <v>85907.64608149233</v>
+        <v>85907.64607530934</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.153787745546019</v>
+        <v>1.153787745485704</v>
       </c>
       <c r="DY2" t="n">
-        <v>311213.904432868</v>
+        <v>311213.9044292192</v>
       </c>
       <c r="DZ2" t="n">
-        <v>385670.9667592124</v>
+        <v>385670.9667540971</v>
       </c>
       <c r="EA2" t="n">
-        <v>3788.611348758259</v>
+        <v>3788.611348759198</v>
       </c>
       <c r="EB2" t="n">
-        <v>-597713.5368629291</v>
+        <v>-597713.5368489382</v>
       </c>
       <c r="EC2" t="n">
-        <v>716.5370912538</v>
+        <v>716.5370912536621</v>
       </c>
       <c r="ED2" t="n">
-        <v>1005.2044136232</v>
+        <v>1005.204413623022</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.402864451670309</v>
+        <v>1.402864451670329</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.9993241038539745</v>
+        <v>0.9993241038539543</v>
       </c>
       <c r="EG2" t="n">
-        <v>323.0833304644304</v>
+        <v>323.0833304612476</v>
       </c>
       <c r="EH2" t="n">
-        <v>120435.6398189078</v>
+        <v>120435.6398102391</v>
       </c>
       <c r="EI2" t="n">
-        <v>8.303189998439355e-06</v>
+        <v>8.303189999037005e-06</v>
       </c>
       <c r="EJ2" t="n">
-        <v>85849.80514369161</v>
+        <v>85849.80513751102</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.164825008427502e-05</v>
+        <v>1.164825008511361e-05</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.003866076681568439</v>
+        <v>0.003866076681644317</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.652841742896395e-05</v>
+        <v>1.652841742870182e-05</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.02330669263540567</v>
+        <v>0.02330669263500611</v>
       </c>
       <c r="EO2" t="n">
-        <v>85907.64608149233</v>
+        <v>85907.64607530934</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.153787745546019</v>
+        <v>1.153787745485704</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.153787745546019</v>
+        <v>1.153787745485704</v>
       </c>
       <c r="ER2" t="n">
-        <v>311213.904432868</v>
+        <v>311213.9044292192</v>
       </c>
       <c r="ES2" t="n">
-        <v>385670.9667592124</v>
+        <v>385670.9667540971</v>
       </c>
       <c r="ET2" t="n">
-        <v>3788.611348758259</v>
+        <v>3788.611348759198</v>
       </c>
       <c r="EU2" t="n">
-        <v>716.5370912538</v>
+        <v>716.5370912536621</v>
       </c>
       <c r="EV2" t="n">
-        <v>1005.2044136232</v>
+        <v>1005.204413623022</v>
       </c>
       <c r="EW2" t="n">
-        <v>323.0833304644304</v>
+        <v>323.0833304612476</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.9993241038539745</v>
+        <v>0.9993241038539543</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.652841742896395e-05</v>
+        <v>1.652841742870182e-05</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.02330669263540567</v>
+        <v>0.02330669263500611</v>
       </c>
       <c r="FA2" t="n">
-        <v>295.593712736333</v>
+        <v>295.5937127363321</v>
       </c>
       <c r="FB2" t="n">
-        <v>135288.2845507472</v>
+        <v>135288.2845503057</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.59519142637821</v>
+        <v>1.595191426373007</v>
       </c>
       <c r="FD2" t="n">
-        <v>336974.3686010351</v>
+        <v>336974.3686010354</v>
       </c>
       <c r="FE2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FF2" t="n">
-        <v>3788.61134876346</v>
+        <v>3788.611348764397</v>
       </c>
       <c r="FG2" t="n">
-        <v>-698105.2636074077</v>
+        <v>-698105.2636076815</v>
       </c>
       <c r="FH2" t="n">
-        <v>717.8561732208129</v>
+        <v>717.8561732208117</v>
       </c>
       <c r="FI2" t="n">
-        <v>1006.777060645988</v>
+        <v>1006.777060645981</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.402477401745911</v>
+        <v>1.402477401745903</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.9995302925606382</v>
+        <v>0.9995302925606396</v>
       </c>
       <c r="FL2" t="n">
-        <v>344.8027731289472</v>
+        <v>344.8027731289462</v>
       </c>
       <c r="FM2" t="n">
-        <v>189650.6374916315</v>
+        <v>189650.6374910118</v>
       </c>
       <c r="FN2" t="n">
-        <v>5.272853354073887e-06</v>
+        <v>5.272853354091115e-06</v>
       </c>
       <c r="FO2" t="n">
-        <v>135225.4498044246</v>
+        <v>135225.4498039836</v>
       </c>
       <c r="FP2" t="n">
-        <v>7.395057671808756e-06</v>
+        <v>7.395057671832874e-06</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.003395619820265772</v>
+        <v>0.003395619820265741</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.832925555050927e-05</v>
+        <v>1.832925555050916e-05</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.02606729576326954</v>
+        <v>0.02606729576326933</v>
       </c>
       <c r="FT2" t="n">
-        <v>135288.2845507472</v>
+        <v>135288.2845503057</v>
       </c>
       <c r="FU2" t="n">
-        <v>1.59519142637821</v>
+        <v>1.595191426373007</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.59519142637821</v>
+        <v>1.595191426373007</v>
       </c>
       <c r="FW2" t="n">
-        <v>336974.3686010351</v>
+        <v>336974.3686010354</v>
       </c>
       <c r="FX2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FY2" t="n">
-        <v>3788.61134876346</v>
+        <v>3788.611348764397</v>
       </c>
       <c r="FZ2" t="n">
-        <v>717.8561732208129</v>
+        <v>717.8561732208117</v>
       </c>
       <c r="GA2" t="n">
-        <v>1006.777060645988</v>
+        <v>1006.777060645981</v>
       </c>
       <c r="GB2" t="n">
-        <v>344.8027731289472</v>
+        <v>344.8027731289462</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.9995302925606382</v>
+        <v>0.9995302925606396</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.832925555050927e-05</v>
+        <v>1.832925555050916e-05</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.02606729576326954</v>
+        <v>0.02606729576326933</v>
       </c>
       <c r="GF2" t="n">
-        <v>295.593712736333</v>
+        <v>295.5937127363321</v>
       </c>
       <c r="GG2" t="n">
-        <v>135288.2845507472</v>
+        <v>135288.2845503057</v>
       </c>
       <c r="GH2" t="n">
-        <v>1.59519142637821</v>
+        <v>1.595191426373007</v>
       </c>
       <c r="GI2" t="n">
-        <v>336974.3686010351</v>
+        <v>336974.3686010354</v>
       </c>
       <c r="GJ2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GK2" t="n">
-        <v>3788.61134876346</v>
+        <v>3788.611348764397</v>
       </c>
       <c r="GL2" t="n">
-        <v>-698105.2636074077</v>
+        <v>-698105.2636076815</v>
       </c>
       <c r="GM2" t="n">
-        <v>717.8561732208129</v>
+        <v>717.8561732208117</v>
       </c>
       <c r="GN2" t="n">
-        <v>1006.777060645988</v>
+        <v>1006.777060645981</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.402477401745911</v>
+        <v>1.402477401745903</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.9995302925606382</v>
+        <v>0.9995302925606396</v>
       </c>
       <c r="GQ2" t="n">
-        <v>344.8027731289472</v>
+        <v>344.8027731289462</v>
       </c>
       <c r="GR2" t="n">
-        <v>189650.6374916315</v>
+        <v>189650.6374910118</v>
       </c>
       <c r="GS2" t="n">
-        <v>5.272853354073887e-06</v>
+        <v>5.272853354091115e-06</v>
       </c>
       <c r="GT2" t="n">
-        <v>135225.4498044246</v>
+        <v>135225.4498039836</v>
       </c>
       <c r="GU2" t="n">
-        <v>7.395057671808756e-06</v>
+        <v>7.395057671832874e-06</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.003395619820265772</v>
+        <v>0.003395619820265741</v>
       </c>
       <c r="GW2" t="n">
-        <v>1.832925555050927e-05</v>
+        <v>1.832925555050916e-05</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.02606729576326954</v>
+        <v>0.02606729576326933</v>
       </c>
       <c r="GY2" t="n">
-        <v>135288.2845507472</v>
+        <v>135288.2845503057</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.59519142637821</v>
+        <v>1.595191426373007</v>
       </c>
       <c r="HA2" t="n">
-        <v>1.59519142637821</v>
+        <v>1.595191426373007</v>
       </c>
       <c r="HB2" t="n">
-        <v>336974.3686010351</v>
+        <v>336974.3686010354</v>
       </c>
       <c r="HC2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HD2" t="n">
-        <v>3788.61134876346</v>
+        <v>3788.611348764397</v>
       </c>
       <c r="HE2" t="n">
-        <v>717.8561732208129</v>
+        <v>717.8561732208117</v>
       </c>
       <c r="HF2" t="n">
-        <v>1006.777060645988</v>
+        <v>1006.777060645981</v>
       </c>
       <c r="HG2" t="n">
-        <v>344.8027731289472</v>
+        <v>344.8027731289462</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.9995302925606382</v>
+        <v>0.9995302925606396</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.832925555050927e-05</v>
+        <v>1.832925555050916e-05</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.02606729576326954</v>
+        <v>0.02606729576326933</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.8318308494542215</v>
+        <v>0.8318308495213268</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.8318308494542215</v>
+        <v>0.8318308495213268</v>
       </c>
       <c r="HM2" t="n">
-        <v>490774.4701747413</v>
+        <v>490774.4701916264</v>
       </c>
       <c r="HN2" t="n">
-        <v>2.740741523256055</v>
+        <v>2.740741523284643</v>
       </c>
       <c r="HO2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.01593129418743291</v>
+        <v>0.01593129418770512</v>
       </c>
       <c r="HQ2" t="n">
-        <v>-1.788191704073032e-07</v>
+        <v>-1.788191703860201e-07</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.01379057938679744</v>
+        <v>0.01379057938680404</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.02519285335557222</v>
+        <v>0.02519285335548665</v>
       </c>
       <c r="HT2" t="n">
         <v>0</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.05491454811063216</v>
+        <v>0.05491454811082543</v>
       </c>
       <c r="HV2" t="n">
-        <v>2.661759701538813e-14</v>
+        <v>2.388055031499192e-12</v>
       </c>
       <c r="HW2" t="n">
         <v>0</v>
@@ -3826,664 +3826,664 @@
         <v>165.3032</v>
       </c>
       <c r="HY2" t="n">
-        <v>268.7506812247261</v>
+        <v>268.7506812437591</v>
       </c>
       <c r="HZ2" t="n">
-        <v>110.6475275578909</v>
+        <v>110.6475275648292</v>
       </c>
       <c r="IA2" t="n">
-        <v>244.9164210584503</v>
+        <v>244.9164210762009</v>
       </c>
       <c r="IB2" t="n">
-        <v>65.68765713577372</v>
+        <v>65.68765713598374</v>
       </c>
       <c r="IC2" t="n">
-        <v>136.3126564995925</v>
+        <v>136.3126565155917</v>
       </c>
       <c r="ID2" t="n">
-        <v>110.6475275578909</v>
+        <v>110.6475275648292</v>
       </c>
       <c r="IE2" t="n">
-        <v>79.61322105845025</v>
+        <v>79.61322107620094</v>
       </c>
       <c r="IF2" t="n">
-        <v>35.73580888489782</v>
+        <v>35.73580888925083</v>
       </c>
       <c r="IG2" t="n">
-        <v>259.5633104316258</v>
+        <v>259.5633104265187</v>
       </c>
       <c r="IH2" t="n">
-        <v>85907.64608160809</v>
+        <v>85907.64607542494</v>
       </c>
       <c r="II2" t="n">
-        <v>1.153787745547128</v>
+        <v>1.15378774548681</v>
       </c>
       <c r="IJ2" t="n">
-        <v>311213.9044329395</v>
+        <v>311213.904429291</v>
       </c>
       <c r="IK2" t="n">
-        <v>385670.9667593126</v>
+        <v>385670.9667541976</v>
       </c>
       <c r="IL2" t="n">
-        <v>3788.611348758259</v>
+        <v>3788.611348759199</v>
       </c>
       <c r="IM2" t="n">
-        <v>-597713.5368632077</v>
+        <v>-597713.5368492183</v>
       </c>
       <c r="IN2" t="n">
-        <v>716.5370912538027</v>
+        <v>716.5370912536649</v>
       </c>
       <c r="IO2" t="n">
-        <v>1005.204413623204</v>
+        <v>1005.204413623025</v>
       </c>
       <c r="IP2" t="n">
-        <v>1.402864451670309</v>
+        <v>1.402864451670329</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.999324103853975</v>
+        <v>0.9993241038539548</v>
       </c>
       <c r="IR2" t="n">
-        <v>323.0833304644927</v>
+        <v>323.0833304613101</v>
       </c>
       <c r="IS2" t="n">
-        <v>120435.6398190701</v>
+        <v>120435.6398104011</v>
       </c>
       <c r="IT2" t="n">
-        <v>8.303189998428166e-06</v>
+        <v>8.30318999902583e-06</v>
       </c>
       <c r="IU2" t="n">
-        <v>85849.80514380735</v>
+        <v>85849.80513762659</v>
       </c>
       <c r="IV2" t="n">
-        <v>1.164825008425932e-05</v>
+        <v>1.164825008509793e-05</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.003866076681566951</v>
+        <v>0.003866076681642825</v>
       </c>
       <c r="IX2" t="n">
-        <v>1.652841742896909e-05</v>
+        <v>1.652841742870696e-05</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.02330669263541351</v>
+        <v>0.02330669263501395</v>
       </c>
       <c r="IZ2" t="n">
-        <v>85907.64608160809</v>
+        <v>85907.64607542494</v>
       </c>
       <c r="JA2" t="n">
-        <v>1.153787745547128</v>
+        <v>1.15378774548681</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.153787745547128</v>
+        <v>1.15378774548681</v>
       </c>
       <c r="JC2" t="n">
-        <v>311213.9044329395</v>
+        <v>311213.904429291</v>
       </c>
       <c r="JD2" t="n">
-        <v>385670.9667593126</v>
+        <v>385670.9667541976</v>
       </c>
       <c r="JE2" t="n">
-        <v>3788.611348758259</v>
+        <v>3788.611348759199</v>
       </c>
       <c r="JF2" t="n">
-        <v>716.5370912538027</v>
+        <v>716.5370912536649</v>
       </c>
       <c r="JG2" t="n">
-        <v>1005.204413623204</v>
+        <v>1005.204413623025</v>
       </c>
       <c r="JH2" t="n">
-        <v>323.0833304644927</v>
+        <v>323.0833304613101</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.999324103853975</v>
+        <v>0.9993241038539548</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.652841742896909e-05</v>
+        <v>1.652841742870696e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02330669263541351</v>
+        <v>0.02330669263501395</v>
       </c>
       <c r="JL2" t="n">
-        <v>295.593712736433</v>
+        <v>295.5937127363321</v>
       </c>
       <c r="JM2" t="n">
-        <v>135288.2845509075</v>
+        <v>135288.2845503048</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.595191426379559</v>
+        <v>1.595191426372996</v>
       </c>
       <c r="JO2" t="n">
-        <v>336974.3686011067</v>
+        <v>336974.3686010354</v>
       </c>
       <c r="JP2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.611348763459</v>
+        <v>3788.611348764399</v>
       </c>
       <c r="JR2" t="n">
-        <v>-698105.263607686</v>
+        <v>-698105.263607682</v>
       </c>
       <c r="JS2" t="n">
-        <v>717.8561732208176</v>
+        <v>717.8561732208117</v>
       </c>
       <c r="JT2" t="n">
-        <v>1006.777060645993</v>
+        <v>1006.777060645981</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.402477401745909</v>
+        <v>1.402477401745903</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.9995302925606389</v>
+        <v>0.9995302925606396</v>
       </c>
       <c r="JW2" t="n">
-        <v>344.8027731290056</v>
+        <v>344.8027731289462</v>
       </c>
       <c r="JX2" t="n">
-        <v>189650.6374918561</v>
+        <v>189650.6374910105</v>
       </c>
       <c r="JY2" t="n">
-        <v>5.272853354067641e-06</v>
+        <v>5.272853354091153e-06</v>
       </c>
       <c r="JZ2" t="n">
-        <v>135225.4498045849</v>
+        <v>135225.4498039826</v>
       </c>
       <c r="KA2" t="n">
-        <v>7.39505767179999e-06</v>
+        <v>7.395057671832926e-06</v>
       </c>
       <c r="KB2" t="n">
-        <v>0.003395619820264625</v>
+        <v>0.003395619820265741</v>
       </c>
       <c r="KC2" t="n">
-        <v>1.832925555051414e-05</v>
+        <v>1.832925555050916e-05</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.02606729576327705</v>
+        <v>0.02606729576326933</v>
       </c>
       <c r="KE2" t="n">
-        <v>135288.2845509075</v>
+        <v>135288.2845503048</v>
       </c>
       <c r="KF2" t="n">
-        <v>1.595191426379559</v>
+        <v>1.595191426372996</v>
       </c>
       <c r="KG2" t="n">
-        <v>1.595191426379559</v>
+        <v>1.595191426372996</v>
       </c>
       <c r="KH2" t="n">
-        <v>336974.3686011067</v>
+        <v>336974.3686010354</v>
       </c>
       <c r="KI2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KJ2" t="n">
-        <v>3788.611348763459</v>
+        <v>3788.611348764399</v>
       </c>
       <c r="KK2" t="n">
-        <v>717.8561732208176</v>
+        <v>717.8561732208117</v>
       </c>
       <c r="KL2" t="n">
-        <v>1006.777060645993</v>
+        <v>1006.777060645981</v>
       </c>
       <c r="KM2" t="n">
-        <v>344.8027731290056</v>
+        <v>344.8027731289462</v>
       </c>
       <c r="KN2" t="n">
-        <v>0.9995302925606389</v>
+        <v>0.9995302925606396</v>
       </c>
       <c r="KO2" t="n">
-        <v>1.832925555051414e-05</v>
+        <v>1.832925555050916e-05</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.02606729576327705</v>
+        <v>0.02606729576326933</v>
       </c>
       <c r="KQ2" t="n">
-        <v>268.8368568757824</v>
+        <v>268.8368568728532</v>
       </c>
       <c r="KR2" t="n">
-        <v>97112.52938635333</v>
+        <v>97112.52938233981</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.259229342781441</v>
+        <v>1.259229342743135</v>
       </c>
       <c r="KT2" t="n">
-        <v>317840.9314142005</v>
+        <v>317840.9314121074</v>
       </c>
       <c r="KU2" t="n">
-        <v>394961.5369203007</v>
+        <v>394961.5369173664</v>
       </c>
       <c r="KV2" t="n">
-        <v>3788.611348758259</v>
+        <v>3788.611348759199</v>
       </c>
       <c r="KW2" t="n">
-        <v>-623556.8300037885</v>
+        <v>-623556.8299958777</v>
       </c>
       <c r="KX2" t="n">
-        <v>716.807660724826</v>
+        <v>716.8076607247325</v>
       </c>
       <c r="KY2" t="n">
-        <v>1005.539531737378</v>
+        <v>1005.539531737258</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1.402802434785072</v>
+        <v>1.402802434785088</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.9993678904089202</v>
+        <v>0.9993678904089074</v>
       </c>
       <c r="LB2" t="n">
-        <v>328.8113932548895</v>
+        <v>328.8113932530958</v>
       </c>
       <c r="LC2" t="n">
-        <v>136144.0136467673</v>
+        <v>136144.0136411405</v>
       </c>
       <c r="LD2" t="n">
-        <v>7.345163207796647e-06</v>
+        <v>7.345163208100223e-06</v>
       </c>
       <c r="LE2" t="n">
-        <v>97051.45234341316</v>
+        <v>97051.45233940089</v>
       </c>
       <c r="LF2" t="n">
-        <v>1.030381283179086e-05</v>
+        <v>1.030381283221684e-05</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.003732968765620029</v>
+        <v>0.003732968765660584</v>
       </c>
       <c r="LH2" t="n">
-        <v>1.700101343093893e-05</v>
+        <v>1.700101343079063e-05</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.02402806485411755</v>
+        <v>0.0240280648538908</v>
       </c>
       <c r="LJ2" t="n">
-        <v>97112.52938635333</v>
+        <v>97112.52938233981</v>
       </c>
       <c r="LK2" t="n">
-        <v>1.259229342781441</v>
+        <v>1.259229342743135</v>
       </c>
       <c r="LL2" t="n">
-        <v>1.259229342781441</v>
+        <v>1.259229342743135</v>
       </c>
       <c r="LM2" t="n">
-        <v>317840.9314142005</v>
+        <v>317840.9314121074</v>
       </c>
       <c r="LN2" t="n">
-        <v>394961.5369203007</v>
+        <v>394961.5369173664</v>
       </c>
       <c r="LO2" t="n">
-        <v>3788.611348758259</v>
+        <v>3788.611348759199</v>
       </c>
       <c r="LP2" t="n">
-        <v>716.807660724826</v>
+        <v>716.8076607247325</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1005.539531737378</v>
+        <v>1005.539531737258</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.8113932548895</v>
+        <v>328.8113932530958</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.9993678904089202</v>
+        <v>0.9993678904089074</v>
       </c>
       <c r="LT2" t="n">
-        <v>1.700101343093893e-05</v>
+        <v>1.700101343079063e-05</v>
       </c>
       <c r="LU2" t="n">
-        <v>0.02402806485411755</v>
+        <v>0.0240280648538908</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.8318308494540608</v>
+        <v>0.8318308495211657</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.4219117597420379</v>
+        <v>0.4219117597957145</v>
       </c>
       <c r="LX2" t="n">
-        <v>247973.4831485858</v>
+        <v>247973.4831686598</v>
       </c>
       <c r="LY2" t="n">
-        <v>2.740741523258691</v>
+        <v>2.74074152328727</v>
       </c>
       <c r="LZ2" t="n">
-        <v>381298.9629550804</v>
+        <v>381298.9629521463</v>
       </c>
       <c r="MA2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MB2" t="n">
-        <v>135.2462140341082</v>
+        <v>135.2462140253617</v>
       </c>
       <c r="MC2" t="n">
-        <v>123.2323857993569</v>
+        <v>123.2323857944462</v>
       </c>
       <c r="MD2" t="n">
-        <v>-55.72537573456353</v>
+        <v>-55.7253757241952</v>
       </c>
       <c r="ME2" t="n">
-        <v>-24.33236352728041</v>
+        <v>-24.33236352413531</v>
       </c>
       <c r="MF2" t="n">
-        <v>253.0609653839391</v>
+        <v>253.0609653724919</v>
       </c>
       <c r="MG2" t="n">
-        <v>123.2323857993569</v>
+        <v>123.2323857944462</v>
       </c>
       <c r="MH2" t="n">
-        <v>-221.0285757345635</v>
+        <v>-221.0285757241952</v>
       </c>
       <c r="MI2" t="n">
-        <v>-60.85856243537503</v>
+        <v>-60.85856243520296</v>
       </c>
       <c r="MJ2" t="n">
-        <v>236.8583537847401</v>
+        <v>236.8583537846965</v>
       </c>
       <c r="MK2" t="n">
-        <v>59999.9999999935</v>
+        <v>60000.00000017083</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.8831259353141506</v>
+        <v>0.8831259353169256</v>
       </c>
       <c r="MM2" t="n">
-        <v>295001.1307582876</v>
+        <v>295001.130758256</v>
       </c>
       <c r="MN2" t="n">
-        <v>362941.610819775</v>
+        <v>362941.6108197307</v>
       </c>
       <c r="MO2" t="n">
-        <v>3799.932194885367</v>
+        <v>3799.932194884332</v>
       </c>
       <c r="MP2" t="n">
-        <v>-537104.0733544071</v>
+        <v>-537104.0733540407</v>
       </c>
       <c r="MQ2" t="n">
-        <v>716.0325652379931</v>
+        <v>716.0325652379935</v>
       </c>
       <c r="MR2" t="n">
-        <v>1004.487930097622</v>
+        <v>1004.487930097627</v>
       </c>
       <c r="MS2" t="n">
-        <v>1.402852298713192</v>
+        <v>1.402852298713198</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.999271899151597</v>
+        <v>0.9992718991515942</v>
       </c>
       <c r="MU2" t="n">
-        <v>308.6117180246129</v>
+        <v>308.6117180245843</v>
       </c>
       <c r="MV2" t="n">
-        <v>84109.96720885491</v>
+        <v>84109.96720910366</v>
       </c>
       <c r="MW2" t="n">
-        <v>1.188919735893943e-05</v>
+        <v>1.188919735890427e-05</v>
       </c>
       <c r="MX2" t="n">
-        <v>59956.39547086124</v>
+        <v>59956.39547103831</v>
       </c>
       <c r="MY2" t="n">
-        <v>1.667878784484299e-05</v>
+        <v>1.667878784479374e-05</v>
       </c>
       <c r="MZ2" t="n">
-        <v>0.00423534233059563</v>
+        <v>0.004235342330596457</v>
       </c>
       <c r="NA2" t="n">
-        <v>1.534219067931826e-05</v>
+        <v>1.534219067931598e-05</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.02150526509067495</v>
+        <v>0.02150526509067154</v>
       </c>
       <c r="NC2" t="n">
-        <v>59999.9999999935</v>
+        <v>60000.00000017083</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8831259353141506</v>
+        <v>0.8831259353169256</v>
       </c>
       <c r="NE2" t="n">
-        <v>0.8831259353141506</v>
+        <v>0.8831259353169256</v>
       </c>
       <c r="NF2" t="n">
-        <v>295001.1307582876</v>
+        <v>295001.130758256</v>
       </c>
       <c r="NG2" t="n">
-        <v>362941.610819775</v>
+        <v>362941.6108197307</v>
       </c>
       <c r="NH2" t="n">
-        <v>3799.932194885367</v>
+        <v>3799.932194884332</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0325652379931</v>
+        <v>716.0325652379935</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.487930097622</v>
+        <v>1004.487930097627</v>
       </c>
       <c r="NK2" t="n">
-        <v>308.6117180246129</v>
+        <v>308.6117180245843</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.999271899151597</v>
+        <v>0.9992718991515942</v>
       </c>
       <c r="NM2" t="n">
-        <v>1.534219067931826e-05</v>
+        <v>1.534219067931598e-05</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.02150526509067495</v>
+        <v>0.02150526509067154</v>
       </c>
       <c r="NO2" t="n">
-        <v>245.9915038252305</v>
+        <v>245.9915038240054</v>
       </c>
       <c r="NP2" t="n">
-        <v>68472.12364204624</v>
+        <v>68472.12363885809</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.9703801925663111</v>
+        <v>0.9703801925259457</v>
       </c>
       <c r="NR2" t="n">
-        <v>301525.2187538563</v>
+        <v>301525.2187529866</v>
       </c>
       <c r="NS2" t="n">
-        <v>372087.3800248545</v>
+        <v>372087.3800236343</v>
       </c>
       <c r="NT2" t="n">
-        <v>3799.932194884507</v>
+        <v>3799.932194892902</v>
       </c>
       <c r="NU2" t="n">
-        <v>-562663.6550286943</v>
+        <v>-562663.6550273245</v>
       </c>
       <c r="NV2" t="n">
-        <v>716.2042443855992</v>
+        <v>716.2042443855654</v>
       </c>
       <c r="NW2" t="n">
-        <v>1004.719253170714</v>
+        <v>1004.719253170629</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.402839010026559</v>
+        <v>1.402839010026507</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.9992991935220763</v>
+        <v>0.9992991935220927</v>
       </c>
       <c r="NZ2" t="n">
-        <v>314.5125652830193</v>
+        <v>314.5125652822354</v>
       </c>
       <c r="OA2" t="n">
-        <v>95988.21705599621</v>
+        <v>95988.21705152486</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.041794535486199e-05</v>
+        <v>1.041794535534728e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>68424.25707435876</v>
+        <v>68424.25707117394</v>
       </c>
       <c r="OD2" t="n">
-        <v>1.461470014812538e-05</v>
+        <v>1.461470014880562e-05</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.004078402343546711</v>
+        <v>0.004078402343566597</v>
       </c>
       <c r="OF2" t="n">
-        <v>1.582421116899867e-05</v>
+        <v>1.582421116893417e-05</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.02223543600614307</v>
+        <v>0.0222354360060449</v>
       </c>
       <c r="OH2" t="n">
-        <v>68472.12364204624</v>
+        <v>68472.12363885809</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.9703801925663111</v>
+        <v>0.9703801925259457</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.9703801925663111</v>
+        <v>0.9703801925259457</v>
       </c>
       <c r="OK2" t="n">
-        <v>301525.2187538563</v>
+        <v>301525.2187529866</v>
       </c>
       <c r="OL2" t="n">
-        <v>372087.3800248545</v>
+        <v>372087.3800236343</v>
       </c>
       <c r="OM2" t="n">
-        <v>3799.932194884507</v>
+        <v>3799.932194892902</v>
       </c>
       <c r="ON2" t="n">
-        <v>716.2042443855992</v>
+        <v>716.2042443855654</v>
       </c>
       <c r="OO2" t="n">
-        <v>1004.719253170714</v>
+        <v>1004.719253170629</v>
       </c>
       <c r="OP2" t="n">
-        <v>314.5125652830193</v>
+        <v>314.5125652822354</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.9992991935220763</v>
+        <v>0.9992991935220927</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.582421116899867e-05</v>
+        <v>1.582421116893417e-05</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.02223543600614307</v>
+        <v>0.0222354360060449</v>
       </c>
       <c r="OT2" t="n">
-        <v>268.8262919600057</v>
+        <v>268.8262919568761</v>
       </c>
       <c r="OU2" t="n">
-        <v>93354.79481749229</v>
+        <v>93354.79481097349</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.210522165971443</v>
+        <v>1.210522165901004</v>
       </c>
       <c r="OW2" t="n">
-        <v>317842.0942188257</v>
+        <v>317842.0942165952</v>
       </c>
       <c r="OX2" t="n">
-        <v>394961.5369202943</v>
+        <v>394961.5369171661</v>
       </c>
       <c r="OY2" t="n">
-        <v>3799.932194875936</v>
+        <v>3799.932194884331</v>
       </c>
       <c r="OZ2" t="n">
-        <v>-626560.1447276495</v>
+        <v>-626560.144721142</v>
       </c>
       <c r="PA2" t="n">
-        <v>716.795300266346</v>
+        <v>716.7953002662388</v>
       </c>
       <c r="PB2" t="n">
-        <v>1005.462111581071</v>
+        <v>1005.462111580895</v>
       </c>
       <c r="PC2" t="n">
-        <v>1.402718616050443</v>
+        <v>1.402718616050408</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9993920969211153</v>
+        <v>0.9993920969211177</v>
       </c>
       <c r="PE2" t="n">
-        <v>328.8030333855318</v>
+        <v>328.8030333836144</v>
       </c>
       <c r="PF2" t="n">
-        <v>130871.2881762252</v>
+        <v>130871.2881670836</v>
       </c>
       <c r="PG2" t="n">
-        <v>7.641095414705833e-06</v>
+        <v>7.641095415239574e-06</v>
       </c>
       <c r="PH2" t="n">
-        <v>93298.31847866412</v>
+        <v>93298.31847214945</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.071830678522555e-05</v>
+        <v>1.071830678597397e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.003732604897002807</v>
+        <v>0.003732604897045811</v>
       </c>
       <c r="PK2" t="n">
-        <v>1.699990954585329e-05</v>
+        <v>1.69999095456945e-05</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.02402592032273297</v>
+        <v>0.0240259203224899</v>
       </c>
       <c r="PM2" t="n">
-        <v>93354.79481749229</v>
+        <v>93354.79481097349</v>
       </c>
       <c r="PN2" t="n">
-        <v>1.210522165971443</v>
+        <v>1.210522165901004</v>
       </c>
       <c r="PO2" t="n">
-        <v>1.210522165971443</v>
+        <v>1.210522165901004</v>
       </c>
       <c r="PP2" t="n">
-        <v>317842.0942188257</v>
+        <v>317842.0942165952</v>
       </c>
       <c r="PQ2" t="n">
-        <v>394961.5369202943</v>
+        <v>394961.5369171661</v>
       </c>
       <c r="PR2" t="n">
-        <v>3799.932194875936</v>
+        <v>3799.932194884331</v>
       </c>
       <c r="PS2" t="n">
-        <v>716.795300266346</v>
+        <v>716.7953002662388</v>
       </c>
       <c r="PT2" t="n">
-        <v>1005.462111581071</v>
+        <v>1005.462111580895</v>
       </c>
       <c r="PU2" t="n">
-        <v>328.8030333855318</v>
+        <v>328.8030333836144</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.9993920969211153</v>
+        <v>0.9993920969211177</v>
       </c>
       <c r="PW2" t="n">
-        <v>1.699990954585329e-05</v>
+        <v>1.69999095456945e-05</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.02402592032273297</v>
+        <v>0.0240259203224899</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.4382406957836964</v>
+        <v>0.4382406957553954</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.81999791519179</v>
+        <v>0.8199979151547732</v>
       </c>
       <c r="QA2" t="n">
-        <v>379607.5442705022</v>
+        <v>379607.5442545797</v>
       </c>
       <c r="QB2" t="n">
-        <v>2.74074152332184</v>
+        <v>2.740741523221237</v>
       </c>
       <c r="QC2" t="n">
-        <v>381298.9629550804</v>
+        <v>381298.9629521463</v>
       </c>
       <c r="QD2" t="n">
-        <v>0.02448664324237261</v>
+        <v>0.02448664324695697</v>
       </c>
       <c r="QE2" t="n">
-        <v>0.001921552657218087</v>
+        <v>0.001921552659666512</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.01188917040661857</v>
+        <v>0.01188917040640959</v>
       </c>
       <c r="QG2" t="n">
-        <v>0.03198686092964996</v>
+        <v>0.03198686093142884</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.04237527463505394</v>
+        <v>0.04237527463784172</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.1126595018709132</v>
+        <v>0.1126595018823036</v>
       </c>
       <c r="QJ2" t="n">
-        <v>-8.541292673136525e-12</v>
+        <v>7.77954228814437e-11</v>
       </c>
       <c r="QK2" t="n">
         <v>0</v>
@@ -4497,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.71967492434979</v>
+        <v>80.71967492404218</v>
       </c>
       <c r="D3" t="n">
-        <v>80.71967492434979</v>
+        <v>80.71967492404218</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4509,10 +4509,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.71967492434979</v>
+        <v>80.71967492404218</v>
       </c>
       <c r="H3" t="n">
-        <v>80.71967492434979</v>
+        <v>80.71967492404218</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4521,97 +4521,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3516962047466</v>
+        <v>292.3516962046712</v>
       </c>
       <c r="L3" t="n">
-        <v>132771.2608547532</v>
+        <v>132771.2608546337</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582924932893721</v>
+        <v>1.582924932892706</v>
       </c>
       <c r="N3" t="n">
-        <v>334649.4299219394</v>
+        <v>334649.4299218854</v>
       </c>
       <c r="O3" t="n">
-        <v>418526.598128543</v>
+        <v>418526.5981284673</v>
       </c>
       <c r="P3" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687415.7050792458</v>
+        <v>-687415.7050790359</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7128745544918</v>
+        <v>717.7128745544883</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.64762244815</v>
+        <v>1006.647622448146</v>
       </c>
       <c r="T3" t="n">
-        <v>1.4025770724442</v>
+        <v>1.402577072444201</v>
       </c>
       <c r="U3" t="n">
-        <v>0.999497959298068</v>
+        <v>0.9994979592980674</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9077703132311</v>
+        <v>342.9077703131867</v>
       </c>
       <c r="W3" t="n">
-        <v>186129.3979227444</v>
+        <v>186129.3979225768</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372606429506983e-06</v>
+        <v>5.372606429511818e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132705.2905537562</v>
+        <v>132705.2905536367</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.53549459729279e-06</v>
+        <v>7.535494597299578e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433468911434475</v>
+        <v>0.003433468911435361</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817137271404591e-05</v>
+        <v>1.817137271404222e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582424888573276</v>
+        <v>0.02582424888572707</v>
       </c>
       <c r="AD3" t="n">
-        <v>132771.2608547532</v>
+        <v>132771.2608546337</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582924932893721</v>
+        <v>1.582924932892706</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582924932893721</v>
+        <v>1.582924932892706</v>
       </c>
       <c r="AG3" t="n">
-        <v>334649.4299219394</v>
+        <v>334649.4299218854</v>
       </c>
       <c r="AH3" t="n">
-        <v>418526.598128543</v>
+        <v>418526.5981284673</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7128745544918</v>
+        <v>717.7128745544883</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.64762244815</v>
+        <v>1006.647622448146</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9077703132311</v>
+        <v>342.9077703131867</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.999497959298068</v>
+        <v>0.9994979592980674</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817137271404591e-05</v>
+        <v>1.817137271404222e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582424888573276</v>
+        <v>0.02582424888572707</v>
       </c>
       <c r="AP3" t="n">
         <v>295.6000000000945</v>
@@ -4800,16 +4800,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.2353976255790761</v>
+        <v>0.2353976255782095</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.2353976255790761</v>
+        <v>0.2353976255782095</v>
       </c>
       <c r="DB3" t="n">
-        <v>183945.7369949784</v>
+        <v>183945.7369941968</v>
       </c>
       <c r="DC3" t="n">
-        <v>2.743090699369898</v>
+        <v>2.743090699357686</v>
       </c>
       <c r="DD3" t="n">
         <v>421784.4310884894</v>
@@ -4858,343 +4858,343 @@
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>270.2219879946697</v>
+        <v>270.2219879930058</v>
       </c>
       <c r="DO3" t="n">
-        <v>111.1847218063461</v>
+        <v>111.1847218057538</v>
       </c>
       <c r="DP3" t="n">
-        <v>246.2882060364175</v>
+        <v>246.2882060348593</v>
       </c>
       <c r="DQ3" t="n">
-        <v>65.70360738396836</v>
+        <v>65.70360738394689</v>
       </c>
       <c r="DR3" t="n">
-        <v>270.2219879946697</v>
+        <v>270.2219879930058</v>
       </c>
       <c r="DS3" t="n">
-        <v>111.1847218063461</v>
+        <v>111.1847218057538</v>
       </c>
       <c r="DT3" t="n">
-        <v>246.2882060364175</v>
+        <v>246.2882060348593</v>
       </c>
       <c r="DU3" t="n">
-        <v>65.70360738396835</v>
+        <v>65.70360738394689</v>
       </c>
       <c r="DV3" t="n">
-        <v>259.1674391451782</v>
+        <v>259.1674391456264</v>
       </c>
       <c r="DW3" t="n">
-        <v>85435.22013085836</v>
+        <v>85435.2201311837</v>
       </c>
       <c r="DX3" t="n">
-        <v>1.149197335193707</v>
+        <v>1.149197335196092</v>
       </c>
       <c r="DY3" t="n">
-        <v>310931.0845170261</v>
+        <v>310931.0845173469</v>
       </c>
       <c r="DZ3" t="n">
-        <v>385274.469690694</v>
+        <v>385274.4696911434</v>
       </c>
       <c r="EA3" t="n">
-        <v>3788.664462889737</v>
+        <v>3788.664462890379</v>
       </c>
       <c r="EB3" t="n">
-        <v>-596623.9969367811</v>
+        <v>-596623.9969381961</v>
       </c>
       <c r="EC3" t="n">
-        <v>716.5264444959074</v>
+        <v>716.5264444959189</v>
       </c>
       <c r="ED3" t="n">
-        <v>1005.19072546041</v>
+        <v>1005.190725460421</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.402866193120876</v>
+        <v>1.402866193120869</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.9993224981992506</v>
+        <v>0.9993224981992541</v>
       </c>
       <c r="EG3" t="n">
-        <v>322.8365400297405</v>
+        <v>322.8365400300199</v>
       </c>
       <c r="EH3" t="n">
-        <v>119773.2898346113</v>
+        <v>119773.2898350672</v>
       </c>
       <c r="EI3" t="n">
-        <v>8.349106895041856e-06</v>
+        <v>8.349106895010077e-06</v>
       </c>
       <c r="EJ3" t="n">
-        <v>85377.55804647238</v>
+        <v>85377.55804679777</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.171267980580663e-05</v>
+        <v>1.171267980576199e-05</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.003871967879601883</v>
+        <v>0.003871967879595171</v>
       </c>
       <c r="EM3" t="n">
-        <v>1.650809359933864e-05</v>
+        <v>1.650809359936162e-05</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.02327571726295795</v>
+        <v>0.02327571726299294</v>
       </c>
       <c r="EO3" t="n">
-        <v>85435.22013085836</v>
+        <v>85435.2201311837</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.149197335193707</v>
+        <v>1.149197335196092</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.149197335193707</v>
+        <v>1.149197335196092</v>
       </c>
       <c r="ER3" t="n">
-        <v>310931.0845170261</v>
+        <v>310931.0845173469</v>
       </c>
       <c r="ES3" t="n">
-        <v>385274.469690694</v>
+        <v>385274.4696911434</v>
       </c>
       <c r="ET3" t="n">
-        <v>3788.664462889737</v>
+        <v>3788.664462890379</v>
       </c>
       <c r="EU3" t="n">
-        <v>716.5264444959074</v>
+        <v>716.5264444959189</v>
       </c>
       <c r="EV3" t="n">
-        <v>1005.19072546041</v>
+        <v>1005.190725460421</v>
       </c>
       <c r="EW3" t="n">
-        <v>322.8365400297405</v>
+        <v>322.8365400300199</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.9993224981992506</v>
+        <v>0.9993224981992541</v>
       </c>
       <c r="EY3" t="n">
-        <v>1.650809359933864e-05</v>
+        <v>1.650809359936162e-05</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.02327571726295795</v>
+        <v>0.02327571726299294</v>
       </c>
       <c r="FA3" t="n">
-        <v>295.5936546696179</v>
+        <v>295.5936546697172</v>
       </c>
       <c r="FB3" t="n">
-        <v>135263.2420399536</v>
+        <v>135263.2420398112</v>
       </c>
       <c r="FC3" t="n">
-        <v>1.594896326077943</v>
+        <v>1.594896326075724</v>
       </c>
       <c r="FD3" t="n">
-        <v>336974.3780284366</v>
+        <v>336974.3780285084</v>
       </c>
       <c r="FE3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FF3" t="n">
-        <v>3788.664462894938</v>
+        <v>3788.664462895581</v>
       </c>
       <c r="FG3" t="n">
-        <v>-698120.7438155303</v>
+        <v>-698120.743815996</v>
       </c>
       <c r="FH3" t="n">
-        <v>717.8561079924843</v>
+        <v>717.8561079924882</v>
       </c>
       <c r="FI3" t="n">
         <v>1006.776649474755</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.402476956405998</v>
+        <v>1.402476956405991</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.9995303778013878</v>
+        <v>0.9995303778013894</v>
       </c>
       <c r="FL3" t="n">
-        <v>344.8027135893091</v>
+        <v>344.8027135893668</v>
       </c>
       <c r="FM3" t="n">
-        <v>189615.4878414656</v>
+        <v>189615.4878412652</v>
       </c>
       <c r="FN3" t="n">
-        <v>5.27383080034097e-06</v>
+        <v>5.273830800346543e-06</v>
       </c>
       <c r="FO3" t="n">
-        <v>135200.4301927186</v>
+        <v>135200.4301925764</v>
       </c>
       <c r="FP3" t="n">
-        <v>7.396426169462411e-06</v>
+        <v>7.39642616947019e-06</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.003395618168118736</v>
+        <v>0.003395618168117568</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.832924912157704e-05</v>
+        <v>1.832924912158184e-05</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.02606728340399008</v>
+        <v>0.02606728340399746</v>
       </c>
       <c r="FT3" t="n">
-        <v>135263.2420399536</v>
+        <v>135263.2420398112</v>
       </c>
       <c r="FU3" t="n">
-        <v>1.594896326077943</v>
+        <v>1.594896326075724</v>
       </c>
       <c r="FV3" t="n">
-        <v>1.594896326077943</v>
+        <v>1.594896326075724</v>
       </c>
       <c r="FW3" t="n">
-        <v>336974.3780284366</v>
+        <v>336974.3780285084</v>
       </c>
       <c r="FX3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FY3" t="n">
-        <v>3788.664462894938</v>
+        <v>3788.664462895581</v>
       </c>
       <c r="FZ3" t="n">
-        <v>717.8561079924843</v>
+        <v>717.8561079924882</v>
       </c>
       <c r="GA3" t="n">
         <v>1006.776649474755</v>
       </c>
       <c r="GB3" t="n">
-        <v>344.8027135893091</v>
+        <v>344.8027135893668</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.9995303778013878</v>
+        <v>0.9995303778013894</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.832924912157704e-05</v>
+        <v>1.832924912158184e-05</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.02606728340399008</v>
+        <v>0.02606728340399746</v>
       </c>
       <c r="GF3" t="n">
-        <v>295.5936546696179</v>
+        <v>295.5936546697172</v>
       </c>
       <c r="GG3" t="n">
-        <v>135263.2420399536</v>
+        <v>135263.2420398112</v>
       </c>
       <c r="GH3" t="n">
-        <v>1.594896326077943</v>
+        <v>1.594896326075724</v>
       </c>
       <c r="GI3" t="n">
-        <v>336974.3780284366</v>
+        <v>336974.3780285084</v>
       </c>
       <c r="GJ3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GK3" t="n">
-        <v>3788.664462894938</v>
+        <v>3788.664462895581</v>
       </c>
       <c r="GL3" t="n">
-        <v>-698120.7438155303</v>
+        <v>-698120.743815996</v>
       </c>
       <c r="GM3" t="n">
-        <v>717.8561079924843</v>
+        <v>717.8561079924882</v>
       </c>
       <c r="GN3" t="n">
         <v>1006.776649474755</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.402476956405998</v>
+        <v>1.402476956405991</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.9995303778013878</v>
+        <v>0.9995303778013894</v>
       </c>
       <c r="GQ3" t="n">
-        <v>344.8027135893091</v>
+        <v>344.8027135893668</v>
       </c>
       <c r="GR3" t="n">
-        <v>189615.4878414656</v>
+        <v>189615.4878412652</v>
       </c>
       <c r="GS3" t="n">
-        <v>5.27383080034097e-06</v>
+        <v>5.273830800346543e-06</v>
       </c>
       <c r="GT3" t="n">
-        <v>135200.4301927186</v>
+        <v>135200.4301925764</v>
       </c>
       <c r="GU3" t="n">
-        <v>7.396426169462411e-06</v>
+        <v>7.39642616947019e-06</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.003395618168118736</v>
+        <v>0.003395618168117568</v>
       </c>
       <c r="GW3" t="n">
-        <v>1.832924912157704e-05</v>
+        <v>1.832924912158184e-05</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.02606728340399008</v>
+        <v>0.02606728340399746</v>
       </c>
       <c r="GY3" t="n">
-        <v>135263.2420399536</v>
+        <v>135263.2420398112</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.594896326077943</v>
+        <v>1.594896326075724</v>
       </c>
       <c r="HA3" t="n">
-        <v>1.594896326077943</v>
+        <v>1.594896326075724</v>
       </c>
       <c r="HB3" t="n">
-        <v>336974.3780284366</v>
+        <v>336974.3780285084</v>
       </c>
       <c r="HC3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HD3" t="n">
-        <v>3788.664462894938</v>
+        <v>3788.664462895581</v>
       </c>
       <c r="HE3" t="n">
-        <v>717.8561079924843</v>
+        <v>717.8561079924882</v>
       </c>
       <c r="HF3" t="n">
         <v>1006.776649474755</v>
       </c>
       <c r="HG3" t="n">
-        <v>344.8027135893091</v>
+        <v>344.8027135893668</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.9995303778013878</v>
+        <v>0.9995303778013894</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.832924912157704e-05</v>
+        <v>1.832924912158184e-05</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.02606728340399008</v>
+        <v>0.02606728340399746</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.8370241731923411</v>
+        <v>0.8370241731864628</v>
       </c>
       <c r="HL3" t="n">
-        <v>0.8370241731923411</v>
+        <v>0.8370241731864628</v>
       </c>
       <c r="HM3" t="n">
-        <v>492103.1126124375</v>
+        <v>492103.1126097435</v>
       </c>
       <c r="HN3" t="n">
-        <v>2.74309069939732</v>
+        <v>2.743090699388397</v>
       </c>
       <c r="HO3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HP3" t="n">
-        <v>0.01594768449523169</v>
+        <v>0.01594768449521579</v>
       </c>
       <c r="HQ3" t="n">
-        <v>-1.794076015845035e-07</v>
+        <v>-1.794076015863533e-07</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.01379111872477065</v>
+        <v>0.01379111872476986</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02518545009326134</v>
+        <v>0.02518545009327276</v>
       </c>
       <c r="HT3" t="n">
         <v>0</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.05492407390566209</v>
+        <v>0.05492407390565682</v>
       </c>
       <c r="HV3" t="n">
-        <v>-3.203243226224117e-12</v>
+        <v>1.767752610959406e-13</v>
       </c>
       <c r="HW3" t="n">
         <v>0</v>
@@ -5203,664 +5203,664 @@
         <v>165.3032</v>
       </c>
       <c r="HY3" t="n">
-        <v>270.2219879946697</v>
+        <v>270.2219879930058</v>
       </c>
       <c r="HZ3" t="n">
-        <v>111.1847218063461</v>
+        <v>111.1847218057538</v>
       </c>
       <c r="IA3" t="n">
-        <v>246.2882060364175</v>
+        <v>246.2882060348593</v>
       </c>
       <c r="IB3" t="n">
-        <v>65.70360738396836</v>
+        <v>65.70360738394689</v>
       </c>
       <c r="IC3" t="n">
-        <v>137.5522212320585</v>
+        <v>137.5522212306623</v>
       </c>
       <c r="ID3" t="n">
-        <v>111.1847218063461</v>
+        <v>111.1847218057538</v>
       </c>
       <c r="IE3" t="n">
-        <v>80.98500603641747</v>
+        <v>80.98500603485934</v>
       </c>
       <c r="IF3" t="n">
-        <v>36.0689397907608</v>
+        <v>36.06893979038145</v>
       </c>
       <c r="IG3" t="n">
-        <v>259.1674391451784</v>
+        <v>259.1674391455267</v>
       </c>
       <c r="IH3" t="n">
-        <v>85435.22013094024</v>
+        <v>85435.22013106864</v>
       </c>
       <c r="II3" t="n">
-        <v>1.149197335194808</v>
+        <v>1.149197335194986</v>
       </c>
       <c r="IJ3" t="n">
-        <v>310931.0845170261</v>
+        <v>310931.0845172756</v>
       </c>
       <c r="IK3" t="n">
-        <v>385274.4696906939</v>
+        <v>385274.4696910436</v>
       </c>
       <c r="IL3" t="n">
-        <v>3788.664462889461</v>
+        <v>3788.66446289038</v>
       </c>
       <c r="IM3" t="n">
-        <v>-596623.9969367103</v>
+        <v>-596623.9969379185</v>
       </c>
       <c r="IN3" t="n">
-        <v>716.5264444959079</v>
+        <v>716.5264444959162</v>
       </c>
       <c r="IO3" t="n">
-        <v>1005.190725460413</v>
+        <v>1005.190725460418</v>
       </c>
       <c r="IP3" t="n">
-        <v>1.402866193120878</v>
+        <v>1.40286619312087</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.99932249819925</v>
+        <v>0.9993224981992537</v>
       </c>
       <c r="IR3" t="n">
-        <v>322.8365400297406</v>
+        <v>322.8365400299578</v>
       </c>
       <c r="IS3" t="n">
-        <v>119773.2898347262</v>
+        <v>119773.2898349059</v>
       </c>
       <c r="IT3" t="n">
-        <v>8.349106895033851e-06</v>
+        <v>8.349106895021322e-06</v>
       </c>
       <c r="IU3" t="n">
-        <v>85377.55804655411</v>
+        <v>85377.55804668272</v>
       </c>
       <c r="IV3" t="n">
-        <v>1.171267980579541e-05</v>
+        <v>1.171267980577777e-05</v>
       </c>
       <c r="IW3" t="n">
-        <v>0.003871967879601894</v>
+        <v>0.003871967879596657</v>
       </c>
       <c r="IX3" t="n">
-        <v>1.650809359933866e-05</v>
+        <v>1.650809359935651e-05</v>
       </c>
       <c r="IY3" t="n">
-        <v>0.02327571726295799</v>
+        <v>0.02327571726298514</v>
       </c>
       <c r="IZ3" t="n">
-        <v>85435.22013094024</v>
+        <v>85435.22013106864</v>
       </c>
       <c r="JA3" t="n">
-        <v>1.149197335194808</v>
+        <v>1.149197335194986</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.149197335194808</v>
+        <v>1.149197335194986</v>
       </c>
       <c r="JC3" t="n">
-        <v>310931.0845170261</v>
+        <v>310931.0845172756</v>
       </c>
       <c r="JD3" t="n">
-        <v>385274.4696906939</v>
+        <v>385274.4696910436</v>
       </c>
       <c r="JE3" t="n">
-        <v>3788.664462889461</v>
+        <v>3788.66446289038</v>
       </c>
       <c r="JF3" t="n">
-        <v>716.5264444959079</v>
+        <v>716.5264444959162</v>
       </c>
       <c r="JG3" t="n">
-        <v>1005.190725460413</v>
+        <v>1005.190725460418</v>
       </c>
       <c r="JH3" t="n">
-        <v>322.8365400297406</v>
+        <v>322.8365400299578</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.99932249819925</v>
+        <v>0.9993224981992537</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.650809359933866e-05</v>
+        <v>1.650809359935651e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02327571726295799</v>
+        <v>0.02327571726298514</v>
       </c>
       <c r="JL3" t="n">
-        <v>295.593654669618</v>
+        <v>295.5936546696171</v>
       </c>
       <c r="JM3" t="n">
-        <v>135263.242040084</v>
+        <v>135263.2420396508</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.59489632607948</v>
+        <v>1.594896326074374</v>
       </c>
       <c r="JO3" t="n">
-        <v>336974.3780284365</v>
+        <v>336974.3780284367</v>
       </c>
       <c r="JP3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.664462894661</v>
+        <v>3788.664462895581</v>
       </c>
       <c r="JR3" t="n">
-        <v>-698120.7438154492</v>
+        <v>-698120.7438157173</v>
       </c>
       <c r="JS3" t="n">
-        <v>717.8561079924847</v>
+        <v>717.8561079924835</v>
       </c>
       <c r="JT3" t="n">
-        <v>1006.776649474757</v>
+        <v>1006.77664947475</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.402476956406</v>
+        <v>1.402476956405992</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.9995303778013873</v>
+        <v>0.9995303778013888</v>
       </c>
       <c r="JW3" t="n">
-        <v>344.8027135893093</v>
+        <v>344.8027135893083</v>
       </c>
       <c r="JX3" t="n">
-        <v>189615.4878416485</v>
+        <v>189615.4878410405</v>
       </c>
       <c r="JY3" t="n">
-        <v>5.273830800335882e-06</v>
+        <v>5.273830800352794e-06</v>
       </c>
       <c r="JZ3" t="n">
-        <v>135200.4301928488</v>
+        <v>135200.430192416</v>
       </c>
       <c r="KA3" t="n">
-        <v>7.396426169455287e-06</v>
+        <v>7.396426169478967e-06</v>
       </c>
       <c r="KB3" t="n">
-        <v>0.003395618168118747</v>
+        <v>0.003395618168118716</v>
       </c>
       <c r="KC3" t="n">
-        <v>1.832924912157707e-05</v>
+        <v>1.832924912157696e-05</v>
       </c>
       <c r="KD3" t="n">
-        <v>0.02606728340399014</v>
+        <v>0.02606728340398995</v>
       </c>
       <c r="KE3" t="n">
-        <v>135263.242040084</v>
+        <v>135263.2420396508</v>
       </c>
       <c r="KF3" t="n">
-        <v>1.59489632607948</v>
+        <v>1.594896326074374</v>
       </c>
       <c r="KG3" t="n">
-        <v>1.59489632607948</v>
+        <v>1.594896326074374</v>
       </c>
       <c r="KH3" t="n">
-        <v>336974.3780284365</v>
+        <v>336974.3780284367</v>
       </c>
       <c r="KI3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="KJ3" t="n">
-        <v>3788.664462894661</v>
+        <v>3788.664462895581</v>
       </c>
       <c r="KK3" t="n">
-        <v>717.8561079924847</v>
+        <v>717.8561079924835</v>
       </c>
       <c r="KL3" t="n">
-        <v>1006.776649474757</v>
+        <v>1006.77664947475</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8027135893093</v>
+        <v>344.8027135893083</v>
       </c>
       <c r="KN3" t="n">
-        <v>0.9995303778013873</v>
+        <v>0.9995303778013888</v>
       </c>
       <c r="KO3" t="n">
-        <v>1.832924912157707e-05</v>
+        <v>1.832924912157696e-05</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.02606728340399014</v>
+        <v>0.02606728340398995</v>
       </c>
       <c r="KQ3" t="n">
-        <v>268.6104916486564</v>
+        <v>268.6104916488127</v>
       </c>
       <c r="KR3" t="n">
-        <v>96809.35916716122</v>
+        <v>96809.35916704879</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.256357389605745</v>
+        <v>1.256357389603551</v>
       </c>
       <c r="KT3" t="n">
-        <v>317679.1870624512</v>
+        <v>317679.1870625636</v>
       </c>
       <c r="KU3" t="n">
-        <v>394734.7764736305</v>
+        <v>394734.776473788</v>
       </c>
       <c r="KV3" t="n">
-        <v>3788.664462896091</v>
+        <v>3788.664462897009</v>
       </c>
       <c r="KW3" t="n">
-        <v>-622940.2475966812</v>
+        <v>-622940.2475973627</v>
       </c>
       <c r="KX3" t="n">
-        <v>716.8004703943107</v>
+        <v>716.8004703943145</v>
       </c>
       <c r="KY3" t="n">
-        <v>1005.530448649373</v>
+        <v>1005.530448649372</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.402803834791336</v>
+        <v>1.402803834791328</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.9993668628759689</v>
+        <v>0.9993668628759717</v>
       </c>
       <c r="LB3" t="n">
-        <v>328.6727551334045</v>
+        <v>328.6727551335001</v>
       </c>
       <c r="LC3" t="n">
-        <v>135718.9869294432</v>
+        <v>135718.9869292851</v>
       </c>
       <c r="LD3" t="n">
-        <v>7.368165815442422e-06</v>
+        <v>7.368165815451001e-06</v>
       </c>
       <c r="LE3" t="n">
-        <v>96748.37177047713</v>
+        <v>96748.371770365</v>
       </c>
       <c r="LF3" t="n">
-        <v>1.033609126128106e-05</v>
+        <v>1.033609126129304e-05</v>
       </c>
       <c r="LG3" t="n">
-        <v>0.003736106263432183</v>
+        <v>0.00373610626342997</v>
       </c>
       <c r="LH3" t="n">
-        <v>1.698955247423265e-05</v>
+        <v>1.698955247424052e-05</v>
       </c>
       <c r="LI3" t="n">
-        <v>0.02401054253447718</v>
+        <v>0.02401054253448916</v>
       </c>
       <c r="LJ3" t="n">
-        <v>96809.35916716122</v>
+        <v>96809.35916704879</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.256357389605745</v>
+        <v>1.256357389603551</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.256357389605745</v>
+        <v>1.256357389603551</v>
       </c>
       <c r="LM3" t="n">
-        <v>317679.1870624512</v>
+        <v>317679.1870625636</v>
       </c>
       <c r="LN3" t="n">
-        <v>394734.7764736305</v>
+        <v>394734.776473788</v>
       </c>
       <c r="LO3" t="n">
-        <v>3788.664462896091</v>
+        <v>3788.664462897009</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.8004703943107</v>
+        <v>716.8004703943145</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.530448649373</v>
+        <v>1005.530448649372</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.6727551334045</v>
+        <v>328.6727551335001</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.9993668628759689</v>
+        <v>0.9993668628759717</v>
       </c>
       <c r="LT3" t="n">
-        <v>1.698955247423265e-05</v>
+        <v>1.698955247424052e-05</v>
       </c>
       <c r="LU3" t="n">
-        <v>0.02401054253447718</v>
+        <v>0.02401054253448916</v>
       </c>
       <c r="LV3" t="n">
-        <v>0.8370241731923409</v>
+        <v>0.8370241731866238</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.4260738924391483</v>
+        <v>0.426073892434537</v>
       </c>
       <c r="LX3" t="n">
-        <v>249539.7334838619</v>
+        <v>249539.733481098</v>
       </c>
       <c r="LY3" t="n">
-        <v>2.743090699399947</v>
+        <v>2.743090699385759</v>
       </c>
       <c r="LZ3" t="n">
-        <v>381072.2025084102</v>
+        <v>381072.2025087682</v>
       </c>
       <c r="MA3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MB3" t="n">
-        <v>142.598792632842</v>
+        <v>142.5987926287273</v>
       </c>
       <c r="MC3" t="n">
-        <v>127.2474652169072</v>
+        <v>127.2474652148397</v>
       </c>
       <c r="MD3" t="n">
-        <v>-64.36224247348963</v>
+        <v>-64.36224246846069</v>
       </c>
       <c r="ME3" t="n">
-        <v>-26.83045650175908</v>
+        <v>-26.83045650033094</v>
       </c>
       <c r="MF3" t="n">
-        <v>262.5607222542469</v>
+        <v>262.560722248846</v>
       </c>
       <c r="MG3" t="n">
-        <v>127.2474652169072</v>
+        <v>127.2474652148397</v>
       </c>
       <c r="MH3" t="n">
-        <v>-229.6654424734896</v>
+        <v>-229.6654424684607</v>
       </c>
       <c r="MI3" t="n">
-        <v>-61.01110194050507</v>
+        <v>-61.01110194036787</v>
       </c>
       <c r="MJ3" t="n">
-        <v>234.1852745791744</v>
+        <v>234.1852745807493</v>
       </c>
       <c r="MK3" t="n">
-        <v>57500.00000091056</v>
+        <v>57500.00000070061</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.85599345477556</v>
+        <v>0.8559934547666574</v>
       </c>
       <c r="MM3" t="n">
-        <v>293092.2992135667</v>
+        <v>293092.2992146962</v>
       </c>
       <c r="MN3" t="n">
-        <v>360265.7100382873</v>
+        <v>360265.7100398701</v>
       </c>
       <c r="MO3" t="n">
-        <v>3800.778264898003</v>
+        <v>3800.778264905809</v>
       </c>
       <c r="MP3" t="n">
-        <v>-529820.5915414097</v>
+        <v>-529820.5915476407</v>
       </c>
       <c r="MQ3" t="n">
-        <v>715.9876103782174</v>
+        <v>715.9876103782351</v>
       </c>
       <c r="MR3" t="n">
-        <v>1004.421565091809</v>
+        <v>1004.421565091799</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.402847689726401</v>
+        <v>1.402847689726353</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.9992670963017062</v>
+        <v>0.9992670963017301</v>
       </c>
       <c r="MU3" t="n">
-        <v>306.8633530224169</v>
+        <v>306.8633530234507</v>
       </c>
       <c r="MV3" t="n">
-        <v>80604.72418667737</v>
+        <v>80604.72418638217</v>
       </c>
       <c r="MW3" t="n">
-        <v>1.240622072825458e-05</v>
+        <v>1.240622072830002e-05</v>
       </c>
       <c r="MX3" t="n">
-        <v>57457.92987861555</v>
+        <v>57457.92987840711</v>
       </c>
       <c r="MY3" t="n">
-        <v>1.740403808686772e-05</v>
+        <v>1.740403808693086e-05</v>
       </c>
       <c r="MZ3" t="n">
-        <v>0.004283547972776538</v>
+        <v>0.004283547972747426</v>
       </c>
       <c r="NA3" t="n">
-        <v>1.519975231586727e-05</v>
+        <v>1.51997523159511e-05</v>
       </c>
       <c r="NB3" t="n">
-        <v>0.02128990263493998</v>
+        <v>0.02128990263506639</v>
       </c>
       <c r="NC3" t="n">
-        <v>57500.00000091056</v>
+        <v>57500.00000070061</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.85599345477556</v>
+        <v>0.8559934547666574</v>
       </c>
       <c r="NE3" t="n">
-        <v>0.85599345477556</v>
+        <v>0.8559934547666574</v>
       </c>
       <c r="NF3" t="n">
-        <v>293092.2992135667</v>
+        <v>293092.2992146962</v>
       </c>
       <c r="NG3" t="n">
-        <v>360265.7100382873</v>
+        <v>360265.7100398701</v>
       </c>
       <c r="NH3" t="n">
-        <v>3800.778264898003</v>
+        <v>3800.778264905809</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9876103782174</v>
+        <v>715.9876103782351</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421565091809</v>
+        <v>1004.421565091799</v>
       </c>
       <c r="NK3" t="n">
-        <v>306.8633530224169</v>
+        <v>306.8633530234507</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992670963017062</v>
+        <v>0.9992670963017301</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.519975231586727e-05</v>
+        <v>1.51997523159511e-05</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.02128990263493998</v>
+        <v>0.02128990263506639</v>
       </c>
       <c r="NO3" t="n">
-        <v>244.3387661661828</v>
+        <v>244.3387661673645</v>
       </c>
       <c r="NP3" t="n">
-        <v>66683.07200073992</v>
+        <v>66683.07200005747</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.9514213232547009</v>
+        <v>0.9514213232403403</v>
       </c>
       <c r="NR3" t="n">
-        <v>300345.0710112869</v>
+        <v>300345.0710121361</v>
       </c>
       <c r="NS3" t="n">
-        <v>370432.917868266</v>
+        <v>370432.9178694558</v>
       </c>
       <c r="NT3" t="n">
-        <v>3800.778264906678</v>
+        <v>3800.778264914484</v>
       </c>
       <c r="NU3" t="n">
-        <v>-558244.5538502767</v>
+        <v>-558244.5538554857</v>
       </c>
       <c r="NV3" t="n">
-        <v>716.1698564742672</v>
+        <v>716.1698564742829</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.669742711991</v>
+        <v>1004.669742711975</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.402837237045999</v>
+        <v>1.402837237045946</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992959144273622</v>
+        <v>0.9992959144273851</v>
       </c>
       <c r="NZ3" t="n">
-        <v>313.4529907309746</v>
+        <v>313.4529907317338</v>
       </c>
       <c r="OA3" t="n">
-        <v>93479.78748563782</v>
+        <v>93479.78748467969</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.069749971515114e-05</v>
+        <v>1.069749971526079e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>66636.23192843189</v>
+        <v>66636.23192775142</v>
       </c>
       <c r="OD3" t="n">
-        <v>1.5006850943703e-05</v>
+        <v>1.500685094385624e-05</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.004105895195293567</v>
+        <v>0.00410589519527339</v>
       </c>
       <c r="OF3" t="n">
-        <v>1.573746868405004e-05</v>
+        <v>1.573746868411184e-05</v>
       </c>
       <c r="OG3" t="n">
-        <v>0.02210384051861667</v>
+        <v>0.02210384051871009</v>
       </c>
       <c r="OH3" t="n">
-        <v>66683.07200073992</v>
+        <v>66683.07200005747</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.9514213232547009</v>
+        <v>0.9514213232403403</v>
       </c>
       <c r="OJ3" t="n">
-        <v>0.9514213232547009</v>
+        <v>0.9514213232403403</v>
       </c>
       <c r="OK3" t="n">
-        <v>300345.0710112869</v>
+        <v>300345.0710121361</v>
       </c>
       <c r="OL3" t="n">
-        <v>370432.917868266</v>
+        <v>370432.9178694558</v>
       </c>
       <c r="OM3" t="n">
-        <v>3800.778264906678</v>
+        <v>3800.778264914484</v>
       </c>
       <c r="ON3" t="n">
-        <v>716.1698564742672</v>
+        <v>716.1698564742829</v>
       </c>
       <c r="OO3" t="n">
-        <v>1004.669742711991</v>
+        <v>1004.669742711975</v>
       </c>
       <c r="OP3" t="n">
-        <v>313.4529907309746</v>
+        <v>313.4529907317338</v>
       </c>
       <c r="OQ3" t="n">
-        <v>0.9992959144273622</v>
+        <v>0.9992959144273851</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.573746868405004e-05</v>
+        <v>1.573746868411184e-05</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.02210384051861667</v>
+        <v>0.02210384051871009</v>
       </c>
       <c r="OT3" t="n">
-        <v>268.5992186998837</v>
+        <v>268.5992187000401</v>
       </c>
       <c r="OU3" t="n">
-        <v>92806.46884433391</v>
+        <v>92806.46884200648</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.204428625580866</v>
+        <v>1.204428625549939</v>
       </c>
       <c r="OW3" t="n">
-        <v>317680.4231701433</v>
+        <v>317680.4231702611</v>
       </c>
       <c r="OX3" t="n">
-        <v>394734.7764736242</v>
+        <v>394734.7764737882</v>
       </c>
       <c r="OY3" t="n">
-        <v>3800.778264898004</v>
+        <v>3800.778264905809</v>
       </c>
       <c r="OZ3" t="n">
-        <v>-626151.2959294792</v>
+        <v>-626151.2959320062</v>
       </c>
       <c r="PA3" t="n">
-        <v>716.7872747139298</v>
+        <v>716.7872747139266</v>
       </c>
       <c r="PB3" t="n">
-        <v>1005.447809412186</v>
+        <v>1005.44780941214</v>
       </c>
       <c r="PC3" t="n">
-        <v>1.402714368518136</v>
+        <v>1.402714368518078</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9993927734245419</v>
+        <v>0.9993927734245591</v>
       </c>
       <c r="PE3" t="n">
-        <v>328.6638565114047</v>
+        <v>328.6638565114993</v>
       </c>
       <c r="PF3" t="n">
-        <v>130102.2965201355</v>
+        <v>130102.2965168696</v>
       </c>
       <c r="PG3" t="n">
-        <v>7.686259403155371e-06</v>
+        <v>7.686259403348317e-06</v>
       </c>
       <c r="PH3" t="n">
-        <v>92750.38414098443</v>
+        <v>92750.38413865997</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.078162650496367e-05</v>
+        <v>1.078162650523388e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>0.003735717348519539</v>
+        <v>0.003735717348517025</v>
       </c>
       <c r="PK3" t="n">
-        <v>1.698837517588776e-05</v>
+        <v>1.69883751758953e-05</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.02400825517022871</v>
+        <v>0.02400825517023993</v>
       </c>
       <c r="PM3" t="n">
-        <v>92806.46884433391</v>
+        <v>92806.46884200648</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.204428625580866</v>
+        <v>1.204428625549939</v>
       </c>
       <c r="PO3" t="n">
-        <v>1.204428625580866</v>
+        <v>1.204428625549939</v>
       </c>
       <c r="PP3" t="n">
-        <v>317680.4231701433</v>
+        <v>317680.4231702611</v>
       </c>
       <c r="PQ3" t="n">
-        <v>394734.7764736242</v>
+        <v>394734.7764737882</v>
       </c>
       <c r="PR3" t="n">
-        <v>3800.778264898004</v>
+        <v>3800.778264905809</v>
       </c>
       <c r="PS3" t="n">
-        <v>716.7872747139298</v>
+        <v>716.7872747139266</v>
       </c>
       <c r="PT3" t="n">
-        <v>1005.447809412186</v>
+        <v>1005.44780941214</v>
       </c>
       <c r="PU3" t="n">
-        <v>328.6638565114047</v>
+        <v>328.6638565114993</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.9993927734245419</v>
+        <v>0.9993927734245591</v>
       </c>
       <c r="PW3" t="n">
-        <v>1.698837517588776e-05</v>
+        <v>1.69883751758953e-05</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.02400825517022871</v>
+        <v>0.02400825517023993</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.4646980202371215</v>
+        <v>0.464698020222147</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.8556274956529801</v>
+        <v>0.8556274956324973</v>
       </c>
       <c r="QA3" t="n">
-        <v>385334.6848599561</v>
+        <v>385334.684845897</v>
       </c>
       <c r="QB3" t="n">
-        <v>2.743090699585241</v>
+        <v>2.743090699512144</v>
       </c>
       <c r="QC3" t="n">
-        <v>381072.2025084102</v>
+        <v>381072.2025087682</v>
       </c>
       <c r="QD3" t="n">
-        <v>0.02460453034449839</v>
+        <v>0.02460453034440887</v>
       </c>
       <c r="QE3" t="n">
-        <v>0.002167610488926437</v>
+        <v>0.002167610488659911</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.01188621339021743</v>
+        <v>0.01188621339022377</v>
       </c>
       <c r="QG3" t="n">
-        <v>0.03204893958918546</v>
+        <v>0.0320489395890997</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.04266825628375128</v>
+        <v>0.04266825628343474</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.113375550096579</v>
+        <v>0.113375550095827</v>
       </c>
       <c r="QJ3" t="n">
-        <v>-1.207579453099683e-10</v>
+        <v>-5.046979500988868e-11</v>
       </c>
       <c r="QK3" t="n">
         <v>0</v>
@@ -7207,370 +7207,370 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01593129418743291</v>
+        <v>0.01593129418770512</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.788191704073032e-07</v>
+        <v>-1.788191703860201e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379057938679744</v>
+        <v>0.01379057938680404</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02519285335557222</v>
+        <v>0.02519285335548665</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05491454811063216</v>
+        <v>0.05491454811082543</v>
       </c>
       <c r="H2" t="n">
-        <v>2.661759701538813e-14</v>
+        <v>2.388055031499192e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9817983309472313</v>
+        <v>0.9817983309472608</v>
       </c>
       <c r="J2" t="n">
-        <v>2.783722642467248</v>
+        <v>2.783722642467344</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>277.0514957238174</v>
+        <v>277.051495705611</v>
       </c>
       <c r="M2" t="n">
-        <v>113.7050375212232</v>
+        <v>113.7050375144388</v>
       </c>
       <c r="N2" t="n">
-        <v>252.6434161522949</v>
+        <v>252.6434161353829</v>
       </c>
       <c r="O2" t="n">
-        <v>65.76933148312833</v>
+        <v>65.76933148297235</v>
       </c>
       <c r="P2" t="n">
-        <v>277.0514957238174</v>
+        <v>277.051495705611</v>
       </c>
       <c r="Q2" t="n">
-        <v>113.7050375212232</v>
+        <v>113.7050375144388</v>
       </c>
       <c r="R2" t="n">
-        <v>252.6434161522949</v>
+        <v>252.6434161353829</v>
       </c>
       <c r="S2" t="n">
-        <v>65.76933148312833</v>
+        <v>65.76933148297235</v>
       </c>
       <c r="T2" t="n">
-        <v>257.3015351467308</v>
+        <v>257.3015351516669</v>
       </c>
       <c r="U2" t="n">
-        <v>83234.5780404424</v>
+        <v>83234.57804620947</v>
       </c>
       <c r="V2" t="n">
-        <v>1.12772376078576</v>
+        <v>1.12772376084224</v>
       </c>
       <c r="W2" t="n">
-        <v>309598.0709504223</v>
+        <v>309598.0709539488</v>
       </c>
       <c r="X2" t="n">
-        <v>383405.6654471874</v>
+        <v>383405.6654521313</v>
       </c>
       <c r="Y2" t="n">
-        <v>3788.913188280003</v>
+        <v>3788.913188279342</v>
       </c>
       <c r="Z2" t="n">
-        <v>-591487.5144349516</v>
+        <v>-591487.5144485404</v>
       </c>
       <c r="AA2" t="n">
-        <v>716.4772849045894</v>
+        <v>716.4772849047174</v>
       </c>
       <c r="AB2" t="n">
-        <v>1005.127268361708</v>
+        <v>1005.127268361873</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.402873879659083</v>
+        <v>1.402873879659064</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.9993150861891266</v>
+        <v>0.9993150861891459</v>
       </c>
       <c r="AE2" t="n">
-        <v>321.6707699356439</v>
+        <v>321.6707699387335</v>
       </c>
       <c r="AF2" t="n">
-        <v>116687.9279653129</v>
+        <v>116687.9279733986</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.56986680145065e-06</v>
+        <v>8.569866800856815e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>83177.77503539351</v>
+        <v>83177.77504115827</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.202244228791265e-05</v>
+        <v>1.202244228707942e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.003899979244778091</v>
+        <v>0.003899979244703452</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.64121347444226e-05</v>
+        <v>1.641213474467683e-05</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.02312952199181655</v>
+        <v>0.02312952199220374</v>
       </c>
       <c r="AM2" t="n">
-        <v>83234.5780404424</v>
+        <v>83234.57804620947</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.12772376078576</v>
+        <v>1.12772376084224</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.12772376078576</v>
+        <v>1.12772376084224</v>
       </c>
       <c r="AP2" t="n">
-        <v>309598.0709504223</v>
+        <v>309598.0709539488</v>
       </c>
       <c r="AQ2" t="n">
-        <v>383405.6654471874</v>
+        <v>383405.6654521313</v>
       </c>
       <c r="AR2" t="n">
-        <v>3788.913188280003</v>
+        <v>3788.913188279342</v>
       </c>
       <c r="AS2" t="n">
-        <v>716.4772849045894</v>
+        <v>716.4772849047174</v>
       </c>
       <c r="AT2" t="n">
-        <v>1005.127268361708</v>
+        <v>1005.127268361873</v>
       </c>
       <c r="AU2" t="n">
-        <v>321.6707699356439</v>
+        <v>321.6707699387335</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.9993150861891266</v>
+        <v>0.9993150861891459</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.64121347444226e-05</v>
+        <v>1.641213474467683e-05</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.02312952199181655</v>
+        <v>0.02312952199220374</v>
       </c>
       <c r="AY2" t="n">
-        <v>295.5933828946459</v>
+        <v>295.5933828946467</v>
       </c>
       <c r="AZ2" t="n">
-        <v>135146.0334721331</v>
+        <v>135146.0334724445</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.593515142460276</v>
+        <v>1.593515142463945</v>
       </c>
       <c r="BB2" t="n">
-        <v>336974.4221523225</v>
+        <v>336974.4221523224</v>
       </c>
       <c r="BC2" t="n">
         <v>421784.4310885897</v>
       </c>
       <c r="BD2" t="n">
-        <v>3788.91318828046</v>
+        <v>3788.913188279799</v>
       </c>
       <c r="BE2" t="n">
-        <v>-698193.23572937</v>
+        <v>-698193.2357291774</v>
       </c>
       <c r="BF2" t="n">
-        <v>717.8558026979811</v>
+        <v>717.8558026979819</v>
       </c>
       <c r="BG2" t="n">
-        <v>1006.774725031985</v>
+        <v>1006.77472503199</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.402474872039947</v>
+        <v>1.402474872039953</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.9995307767691791</v>
+        <v>0.999530776769178</v>
       </c>
       <c r="BJ2" t="n">
-        <v>344.8024349236306</v>
+        <v>344.8024349236314</v>
       </c>
       <c r="BK2" t="n">
-        <v>189450.9742001897</v>
+        <v>189450.9742006267</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.278410439543671e-06</v>
+        <v>5.278410439531496e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>135083.3287477207</v>
+        <v>135083.3287480317</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.402838005773333e-06</v>
+        <v>7.402838005756286e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395610435369915</v>
+        <v>0.003395610435369936</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.832921903181469e-05</v>
+        <v>1.832921903181476e-05</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.02606722555811946</v>
+        <v>0.02606722555811961</v>
       </c>
       <c r="BR2" t="n">
-        <v>135146.0334721331</v>
+        <v>135146.0334724445</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.593515142460276</v>
+        <v>1.593515142463945</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.593515142460276</v>
+        <v>1.593515142463945</v>
       </c>
       <c r="BU2" t="n">
-        <v>336974.4221523225</v>
+        <v>336974.4221523224</v>
       </c>
       <c r="BV2" t="n">
         <v>421784.4310885897</v>
       </c>
       <c r="BW2" t="n">
-        <v>3788.91318828046</v>
+        <v>3788.913188279799</v>
       </c>
       <c r="BX2" t="n">
-        <v>717.8558026979811</v>
+        <v>717.8558026979819</v>
       </c>
       <c r="BY2" t="n">
-        <v>1006.774725031985</v>
+        <v>1006.77472503199</v>
       </c>
       <c r="BZ2" t="n">
-        <v>344.8024349236306</v>
+        <v>344.8024349236314</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.9995307767691791</v>
+        <v>0.999530776769178</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.832921903181469e-05</v>
+        <v>1.832921903181476e-05</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.02606722555811946</v>
+        <v>0.02606722555811961</v>
       </c>
       <c r="CD2" t="n">
-        <v>295.5933828946459</v>
+        <v>295.5933828946467</v>
       </c>
       <c r="CE2" t="n">
-        <v>135146.0334721331</v>
+        <v>135146.0334724445</v>
       </c>
       <c r="CF2" t="n">
-        <v>1.593515142460276</v>
+        <v>1.593515142463945</v>
       </c>
       <c r="CG2" t="n">
-        <v>336974.4221523225</v>
+        <v>336974.4221523224</v>
       </c>
       <c r="CH2" t="n">
         <v>421784.4310885897</v>
       </c>
       <c r="CI2" t="n">
-        <v>3788.91318828046</v>
+        <v>3788.913188279799</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-698193.23572937</v>
+        <v>-698193.2357291774</v>
       </c>
       <c r="CK2" t="n">
-        <v>717.8558026979811</v>
+        <v>717.8558026979819</v>
       </c>
       <c r="CL2" t="n">
-        <v>1006.774725031985</v>
+        <v>1006.77472503199</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.402474872039947</v>
+        <v>1.402474872039953</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.9995307767691791</v>
+        <v>0.999530776769178</v>
       </c>
       <c r="CO2" t="n">
-        <v>344.8024349236306</v>
+        <v>344.8024349236314</v>
       </c>
       <c r="CP2" t="n">
-        <v>189450.9742001897</v>
+        <v>189450.9742006267</v>
       </c>
       <c r="CQ2" t="n">
-        <v>5.278410439543671e-06</v>
+        <v>5.278410439531496e-06</v>
       </c>
       <c r="CR2" t="n">
-        <v>135083.3287477207</v>
+        <v>135083.3287480317</v>
       </c>
       <c r="CS2" t="n">
-        <v>7.402838005773333e-06</v>
+        <v>7.402838005756286e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.003395610435369915</v>
+        <v>0.003395610435369936</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.832921903181469e-05</v>
+        <v>1.832921903181476e-05</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.02606722555811946</v>
+        <v>0.02606722555811961</v>
       </c>
       <c r="CW2" t="n">
-        <v>135146.0334721331</v>
+        <v>135146.0334724445</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.593515142460276</v>
+        <v>1.593515142463945</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.593515142460276</v>
+        <v>1.593515142463945</v>
       </c>
       <c r="CZ2" t="n">
-        <v>336974.4221523225</v>
+        <v>336974.4221523224</v>
       </c>
       <c r="DA2" t="n">
         <v>421784.4310885897</v>
       </c>
       <c r="DB2" t="n">
-        <v>3788.91318828046</v>
+        <v>3788.913188279799</v>
       </c>
       <c r="DC2" t="n">
-        <v>717.8558026979811</v>
+        <v>717.8558026979819</v>
       </c>
       <c r="DD2" t="n">
-        <v>1006.774725031985</v>
+        <v>1006.77472503199</v>
       </c>
       <c r="DE2" t="n">
-        <v>344.8024349236306</v>
+        <v>344.8024349236314</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.9995307767691791</v>
+        <v>0.999530776769178</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.832921903181469e-05</v>
+        <v>1.832921903181476e-05</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.02606722555811946</v>
+        <v>0.02606722555811961</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.01602746807110745</v>
+        <v>0.01602746807094815</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-1.822088378987683e-07</v>
+        <v>-1.822088379186083e-07</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.01379326062350352</v>
+        <v>0.01379326062349811</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.02515703990311966</v>
+        <v>0.02515703990319456</v>
       </c>
       <c r="DM2" t="n">
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.05497758638889273</v>
+        <v>0.0549775863888029</v>
       </c>
       <c r="DO2" t="n">
-        <v>8.465450562766819e-16</v>
+        <v>-1.285360706759775e-13</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.8612889998654421</v>
+        <v>0.8612889998005697</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.8612889998654421</v>
+        <v>0.8612889998005697</v>
       </c>
       <c r="DR2" t="n">
-        <v>498007.514436316</v>
+        <v>498007.5144208173</v>
       </c>
       <c r="DS2" t="n">
-        <v>2.740741523255872</v>
+        <v>2.74074152321303</v>
       </c>
       <c r="DT2" t="n">
         <v>421784.4310884894</v>
@@ -7579,418 +7579,418 @@
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>1473.775687012589</v>
+        <v>1473.775687225512</v>
       </c>
       <c r="DW2" t="n">
         <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.006567386312385991</v>
+        <v>0.006567386313747315</v>
       </c>
       <c r="DY2" t="n">
-        <v>-7.371495110871304e-08</v>
+        <v>-7.371495111395995e-08</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.01038529565462707</v>
+        <v>0.01038529565656707</v>
       </c>
       <c r="EA2" t="n">
         <v>0</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.005684915565501812</v>
+        <v>0.005684915566585798</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.02448664324237261</v>
+        <v>0.02448664324695697</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.001921552657218087</v>
+        <v>0.001921552659666512</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.01188917040661857</v>
+        <v>0.01188917040640959</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.03198686092964996</v>
+        <v>0.03198686093142884</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.04237527463505394</v>
+        <v>0.04237527463784172</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.1126595018709132</v>
+        <v>0.1126595018823036</v>
       </c>
       <c r="EI2" t="n">
-        <v>-8.541292673136525e-12</v>
+        <v>7.77954228814437e-11</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.9633419868558636</v>
+        <v>0.963341986852656</v>
       </c>
       <c r="EK2" t="n">
-        <v>2.77868615725074</v>
+        <v>2.778686157139243</v>
       </c>
       <c r="EL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="EM2" t="n">
-        <v>143.4433305802157</v>
+        <v>143.4433306455285</v>
       </c>
       <c r="EN2" t="n">
-        <v>127.712814668711</v>
+        <v>127.7128147041986</v>
       </c>
       <c r="EO2" t="n">
-        <v>-65.31022934686823</v>
+        <v>-65.31022942092179</v>
       </c>
       <c r="EP2" t="n">
-        <v>-27.08445417751762</v>
+        <v>-27.0844541973993</v>
       </c>
       <c r="EQ2" t="n">
-        <v>263.6154715219262</v>
+        <v>263.6154716039016</v>
       </c>
       <c r="ER2" t="n">
-        <v>127.712814668711</v>
+        <v>127.7128147041986</v>
       </c>
       <c r="ES2" t="n">
-        <v>-230.6134293468682</v>
+        <v>-230.6134294209218</v>
       </c>
       <c r="ET2" t="n">
-        <v>-61.02248760930486</v>
+        <v>-61.02248761035497</v>
       </c>
       <c r="EU2" t="n">
-        <v>234.1346587912858</v>
+        <v>234.1346587669474</v>
       </c>
       <c r="EV2" t="n">
-        <v>57470.58948467546</v>
+        <v>57470.58946059921</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.8557408420381536</v>
+        <v>0.8557408417686283</v>
       </c>
       <c r="EX2" t="n">
-        <v>293056.1067303614</v>
+        <v>293056.1067129861</v>
       </c>
       <c r="EY2" t="n">
-        <v>360214.9785072365</v>
+        <v>360214.9784828787</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3800.708363461186</v>
+        <v>3800.708363477319</v>
       </c>
       <c r="FA2" t="n">
-        <v>-529662.5773369347</v>
+        <v>-529662.5772725667</v>
       </c>
       <c r="FB2" t="n">
-        <v>715.9868666461127</v>
+        <v>715.9868666457077</v>
       </c>
       <c r="FC2" t="n">
-        <v>1004.420831931194</v>
+        <v>1004.420831930554</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.40284812294978</v>
+        <v>1.40284812294968</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9992667915968747</v>
+        <v>0.9992667915968547</v>
       </c>
       <c r="FF2" t="n">
-        <v>306.8301427948602</v>
+        <v>306.8301427788954</v>
       </c>
       <c r="FG2" t="n">
-        <v>80563.4961095152</v>
+        <v>80563.49607575714</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.241256956675062e-05</v>
+        <v>1.241256957195178e-05</v>
       </c>
       <c r="FI2" t="n">
-        <v>57428.52329596</v>
+        <v>57428.52327190016</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.741294991769967e-05</v>
+        <v>1.741294992499487e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.004284475388077041</v>
+        <v>0.004284475388520757</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.519705207089553e-05</v>
+        <v>1.519705206959546e-05</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.02128582471320155</v>
+        <v>0.02128582471123655</v>
       </c>
       <c r="FN2" t="n">
-        <v>57470.58948467546</v>
+        <v>57470.58946059921</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.8557408420381536</v>
+        <v>0.8557408417686283</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.8557408420381536</v>
+        <v>0.8557408417686283</v>
       </c>
       <c r="FQ2" t="n">
-        <v>293056.1067303614</v>
+        <v>293056.1067129861</v>
       </c>
       <c r="FR2" t="n">
-        <v>360214.9785072365</v>
+        <v>360214.9784828787</v>
       </c>
       <c r="FS2" t="n">
-        <v>3800.708363461186</v>
+        <v>3800.708363477319</v>
       </c>
       <c r="FT2" t="n">
-        <v>715.9868666461127</v>
+        <v>715.9868666457077</v>
       </c>
       <c r="FU2" t="n">
-        <v>1004.420831931194</v>
+        <v>1004.420831930554</v>
       </c>
       <c r="FV2" t="n">
-        <v>306.8301427948602</v>
+        <v>306.8301427788954</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.9992667915968747</v>
+        <v>0.9992667915968547</v>
       </c>
       <c r="FX2" t="n">
-        <v>1.519705207089553e-05</v>
+        <v>1.519705206959546e-05</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.02128582471320155</v>
+        <v>0.02128582471123655</v>
       </c>
       <c r="FZ2" t="n">
-        <v>244.4087757998194</v>
+        <v>244.4087757845531</v>
       </c>
       <c r="GA2" t="n">
-        <v>66766.01591163938</v>
+        <v>66766.01589333668</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.9523318332511267</v>
+        <v>0.9523318330495555</v>
       </c>
       <c r="GC2" t="n">
-        <v>300395.0405215163</v>
+        <v>300395.0405106203</v>
       </c>
       <c r="GD2" t="n">
-        <v>370502.9730514095</v>
+        <v>370502.9730361338</v>
       </c>
       <c r="GE2" t="n">
-        <v>3800.708363479591</v>
+        <v>3800.708363495724</v>
       </c>
       <c r="GF2" t="n">
-        <v>-558423.5052387724</v>
+        <v>-558423.5051999685</v>
       </c>
       <c r="GG2" t="n">
-        <v>716.1713231713675</v>
+        <v>716.1713231710465</v>
       </c>
       <c r="GH2" t="n">
-        <v>1004.6720201463</v>
+        <v>1004.672020145798</v>
       </c>
       <c r="GI2" t="n">
-        <v>1.402837544091247</v>
+        <v>1.402837544091174</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9992959659994429</v>
+        <v>0.9992959659994338</v>
       </c>
       <c r="GK2" t="n">
-        <v>313.4979449640696</v>
+        <v>313.4979449542676</v>
       </c>
       <c r="GL2" t="n">
-        <v>93596.08823583076</v>
+        <v>93596.08821016728</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.068420720191142e-05</v>
+        <v>1.068420720484097e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>66719.12127677046</v>
+        <v>66719.12125847995</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.498820699169144e-05</v>
+        <v>1.498820699580034e-05</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.004104724630562213</v>
+        <v>0.004104724630817353</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.574114887966489e-05</v>
+        <v>1.57411488788624e-05</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.02210942336755381</v>
+        <v>0.02210942336633638</v>
       </c>
       <c r="GS2" t="n">
-        <v>66766.01591163938</v>
+        <v>66766.01589333668</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.9523318332511267</v>
+        <v>0.9523318330495555</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.9523318332511267</v>
+        <v>0.9523318330495555</v>
       </c>
       <c r="GV2" t="n">
-        <v>300395.0405215163</v>
+        <v>300395.0405106203</v>
       </c>
       <c r="GW2" t="n">
-        <v>370502.9730514095</v>
+        <v>370502.9730361338</v>
       </c>
       <c r="GX2" t="n">
-        <v>3800.708363479591</v>
+        <v>3800.708363495724</v>
       </c>
       <c r="GY2" t="n">
-        <v>716.1713231713675</v>
+        <v>716.1713231710465</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1004.6720201463</v>
+        <v>1004.672020145798</v>
       </c>
       <c r="HA2" t="n">
-        <v>313.4979449640696</v>
+        <v>313.4979449542676</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.9992959659994429</v>
+        <v>0.9992959659994338</v>
       </c>
       <c r="HC2" t="n">
-        <v>1.574114887966489e-05</v>
+        <v>1.57411488788624e-05</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.02210942336755381</v>
+        <v>0.02210942336633638</v>
       </c>
       <c r="HE2" t="n">
-        <v>268.8255827093576</v>
+        <v>268.8255827063149</v>
       </c>
       <c r="HF2" t="n">
-        <v>93102.55547819071</v>
+        <v>93102.55546705979</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.207252625442844</v>
+        <v>1.207252625312134</v>
       </c>
       <c r="HH2" t="n">
-        <v>317842.1722436987</v>
+        <v>317842.172241541</v>
       </c>
       <c r="HI2" t="n">
-        <v>394961.5369202004</v>
+        <v>394961.5369171724</v>
       </c>
       <c r="HJ2" t="n">
-        <v>3800.708363470919</v>
+        <v>3800.708363493953</v>
       </c>
       <c r="HK2" t="n">
-        <v>-626766.1035981984</v>
+        <v>-626766.1035958539</v>
       </c>
       <c r="HL2" t="n">
-        <v>716.7944704771393</v>
+        <v>716.7944704770191</v>
       </c>
       <c r="HM2" t="n">
-        <v>1005.456914480214</v>
+        <v>1005.456914479944</v>
       </c>
       <c r="HN2" t="n">
-        <v>1.402712989416512</v>
+        <v>1.402712989416371</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.9993937225179789</v>
+        <v>0.9993937225180124</v>
       </c>
       <c r="HP2" t="n">
-        <v>328.8024724123048</v>
+        <v>328.8024724104383</v>
       </c>
       <c r="HQ2" t="n">
-        <v>130517.3681042748</v>
+        <v>130517.3680886619</v>
       </c>
       <c r="HR2" t="n">
-        <v>7.661815546273243e-06</v>
+        <v>7.661815547189775e-06</v>
       </c>
       <c r="HS2" t="n">
-        <v>93046.3816112277</v>
+        <v>93046.38160010659</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.074732818927085e-05</v>
+        <v>1.074732819055539e-05</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.003732580467069938</v>
+        <v>0.003732580467111093</v>
       </c>
       <c r="HV2" t="n">
-        <v>1.699983545379299e-05</v>
+        <v>1.699983545363788e-05</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.02402577638929355</v>
+        <v>0.02402577638905553</v>
       </c>
       <c r="HX2" t="n">
-        <v>93102.55547819071</v>
+        <v>93102.55546705979</v>
       </c>
       <c r="HY2" t="n">
-        <v>1.207252625442844</v>
+        <v>1.207252625312134</v>
       </c>
       <c r="HZ2" t="n">
-        <v>1.207252625442844</v>
+        <v>1.207252625312134</v>
       </c>
       <c r="IA2" t="n">
-        <v>317842.1722436987</v>
+        <v>317842.172241541</v>
       </c>
       <c r="IB2" t="n">
-        <v>394961.5369202004</v>
+        <v>394961.5369171724</v>
       </c>
       <c r="IC2" t="n">
-        <v>3800.708363470919</v>
+        <v>3800.708363493953</v>
       </c>
       <c r="ID2" t="n">
-        <v>716.7944704771393</v>
+        <v>716.7944704770191</v>
       </c>
       <c r="IE2" t="n">
-        <v>1005.456914480214</v>
+        <v>1005.456914479944</v>
       </c>
       <c r="IF2" t="n">
-        <v>328.8024724123048</v>
+        <v>328.8024724104383</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.9993937225179789</v>
+        <v>0.9993937225180124</v>
       </c>
       <c r="IH2" t="n">
-        <v>1.699983545379299e-05</v>
+        <v>1.699983545363788e-05</v>
       </c>
       <c r="II2" t="n">
-        <v>0.02402577638929355</v>
+        <v>0.02402577638905553</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.02429895906770714</v>
+        <v>0.0242989590704534</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.001970334088321671</v>
+        <v>0.001970334091276208</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.01190214067862508</v>
+        <v>0.01190214067851343</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.03191283379752698</v>
+        <v>0.03191283379874912</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.0424543980437088</v>
+        <v>0.04245439804707012</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.1125386656758897</v>
+        <v>0.1125386656860623</v>
       </c>
       <c r="IP2" t="n">
-        <v>-4.385519725147446e-12</v>
+        <v>1.443034303161284e-10</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.4675007783577466</v>
+        <v>0.4675007785949344</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.8591576731044109</v>
+        <v>0.8591576734162827</v>
       </c>
       <c r="IS2" t="n">
-        <v>386837.18585982</v>
+        <v>386837.1858913673</v>
       </c>
       <c r="IT2" t="n">
-        <v>2.740741523325009</v>
+        <v>2.740741523314057</v>
       </c>
       <c r="IU2" t="n">
-        <v>381298.9629550804</v>
+        <v>381298.9629521463</v>
       </c>
       <c r="IV2" t="n">
         <v>0</v>
       </c>
       <c r="IW2" t="n">
-        <v>2666.38335265941</v>
+        <v>2666.383352196659</v>
       </c>
       <c r="IX2" t="n">
-        <v>6.13580888489782</v>
+        <v>6.135808889250832</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.008901876175147195</v>
+        <v>0.008901876174807201</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.0006985614013839433</v>
+        <v>0.0006985614021165797</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.01162850589233348</v>
+        <v>0.01162850589035897</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.01540511061297088</v>
+        <v>0.01540511061051185</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.004322189927682715</v>
+        <v>0.004322189926632469</v>
       </c>
     </row>
     <row r="3">
@@ -7998,370 +7998,370 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01594768449523169</v>
+        <v>0.01594768449521579</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.794076015845035e-07</v>
+        <v>-1.794076015863533e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379111872477065</v>
+        <v>0.01379111872476986</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02518545009326134</v>
+        <v>0.02518545009327276</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05492407390566209</v>
+        <v>0.05492407390565682</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.203243226224117e-12</v>
+        <v>1.767752610959406e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9817966431019256</v>
+        <v>0.9817966431019384</v>
       </c>
       <c r="J3" t="n">
-        <v>2.783717087217288</v>
+        <v>2.78371708721733</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>278.1336240612641</v>
+        <v>278.1336240543716</v>
       </c>
       <c r="M3" t="n">
-        <v>114.1089762282006</v>
+        <v>114.1089762256425</v>
       </c>
       <c r="N3" t="n">
-        <v>253.6482887338381</v>
+        <v>253.6482887274312</v>
       </c>
       <c r="O3" t="n">
-        <v>65.77840768310462</v>
+        <v>65.77840768304371</v>
       </c>
       <c r="P3" t="n">
-        <v>278.1336240612641</v>
+        <v>278.1336240543716</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.1089762282006</v>
+        <v>114.1089762256425</v>
       </c>
       <c r="R3" t="n">
-        <v>253.6482887338381</v>
+        <v>253.6482887274312</v>
       </c>
       <c r="S3" t="n">
-        <v>65.77840768310463</v>
+        <v>65.77840768304372</v>
       </c>
       <c r="T3" t="n">
-        <v>257.001603572252</v>
+        <v>257.0016035739661</v>
       </c>
       <c r="U3" t="n">
-        <v>82884.97725553345</v>
+        <v>82884.97725754407</v>
       </c>
       <c r="V3" t="n">
-        <v>1.124298997802939</v>
+        <v>1.124298997822706</v>
       </c>
       <c r="W3" t="n">
-        <v>309383.8025212126</v>
+        <v>309383.8025224373</v>
       </c>
       <c r="X3" t="n">
-        <v>383105.274671863</v>
+        <v>383105.2746735798</v>
       </c>
       <c r="Y3" t="n">
-        <v>3788.952412253615</v>
+        <v>3788.952412253338</v>
       </c>
       <c r="Z3" t="n">
-        <v>-590661.5711362689</v>
+        <v>-590661.5711409751</v>
       </c>
       <c r="AA3" t="n">
-        <v>716.4695394912686</v>
+        <v>716.469539491313</v>
       </c>
       <c r="AB3" t="n">
-        <v>1005.117233373915</v>
+        <v>1005.117233373973</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.402875039303976</v>
+        <v>1.40287503930397</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.9993139174911794</v>
+        <v>0.9993139174911859</v>
       </c>
       <c r="AE3" t="n">
-        <v>321.482986549142</v>
+        <v>321.4829865502155</v>
       </c>
       <c r="AF3" t="n">
-        <v>116197.7749747971</v>
+        <v>116197.7749776161</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.606016769399385e-06</v>
+        <v>8.606016769190601e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>82828.31451078325</v>
+        <v>82828.31451279306</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.207316611362183e-05</v>
+        <v>1.207316611332888e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.003904519798187962</v>
+        <v>0.003904519798161985</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.639668464701005e-05</v>
+        <v>1.639668464709837e-05</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.02310599192450362</v>
+        <v>0.02310599192463813</v>
       </c>
       <c r="AM3" t="n">
-        <v>82884.97725553345</v>
+        <v>82884.97725754407</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.124298997802939</v>
+        <v>1.124298997822706</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.124298997802939</v>
+        <v>1.124298997822706</v>
       </c>
       <c r="AP3" t="n">
-        <v>309383.8025212126</v>
+        <v>309383.8025224373</v>
       </c>
       <c r="AQ3" t="n">
-        <v>383105.274671863</v>
+        <v>383105.2746735798</v>
       </c>
       <c r="AR3" t="n">
-        <v>3788.952412253615</v>
+        <v>3788.952412253338</v>
       </c>
       <c r="AS3" t="n">
-        <v>716.4695394912686</v>
+        <v>716.469539491313</v>
       </c>
       <c r="AT3" t="n">
-        <v>1005.117233373915</v>
+        <v>1005.117233373973</v>
       </c>
       <c r="AU3" t="n">
-        <v>321.482986549142</v>
+        <v>321.4829865502155</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.9993139174911794</v>
+        <v>0.9993139174911859</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.639668464701005e-05</v>
+        <v>1.639668464709837e-05</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.02310599192450362</v>
+        <v>0.02310599192463813</v>
       </c>
       <c r="AY3" t="n">
-        <v>295.5933400569</v>
+        <v>295.5933400569003</v>
       </c>
       <c r="AZ3" t="n">
-        <v>135127.5589680638</v>
+        <v>135127.5589681948</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.593297439111477</v>
+        <v>1.593297439113021</v>
       </c>
       <c r="BB3" t="n">
-        <v>336974.4291069512</v>
+        <v>336974.4291069513</v>
       </c>
       <c r="BC3" t="n">
-        <v>421784.4310883888</v>
+        <v>421784.431088389</v>
       </c>
       <c r="BD3" t="n">
-        <v>3788.9524122532</v>
+        <v>3788.952412252922</v>
       </c>
       <c r="BE3" t="n">
-        <v>-698204.6677661828</v>
+        <v>-698204.6677661018</v>
       </c>
       <c r="BF3" t="n">
-        <v>717.8557545770838</v>
+        <v>717.8557545770841</v>
       </c>
       <c r="BG3" t="n">
-        <v>1006.774421699311</v>
+        <v>1006.774421699313</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.402474543499954</v>
+        <v>1.402474543499957</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.9995308396560386</v>
+        <v>0.9995308396560382</v>
       </c>
       <c r="BJ3" t="n">
-        <v>344.8023910003636</v>
+        <v>344.8023910003639</v>
       </c>
       <c r="BK3" t="n">
-        <v>189425.0434674043</v>
+        <v>189425.0434675882</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.27913301058356e-06</v>
+        <v>5.279133010578436e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>135064.871120358</v>
+        <v>135064.871120489</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.403849659093719e-06</v>
+        <v>7.403849659086541e-06</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.003395609216521669</v>
+        <v>0.003395609216521676</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.832921428904525e-05</v>
+        <v>1.832921428904528e-05</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.02606721644043238</v>
+        <v>0.02606721644043243</v>
       </c>
       <c r="BR3" t="n">
-        <v>135127.5589680638</v>
+        <v>135127.5589681948</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.593297439111477</v>
+        <v>1.593297439113021</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.593297439111477</v>
+        <v>1.593297439113021</v>
       </c>
       <c r="BU3" t="n">
-        <v>336974.4291069512</v>
+        <v>336974.4291069513</v>
       </c>
       <c r="BV3" t="n">
-        <v>421784.4310883888</v>
+        <v>421784.431088389</v>
       </c>
       <c r="BW3" t="n">
-        <v>3788.9524122532</v>
+        <v>3788.952412252922</v>
       </c>
       <c r="BX3" t="n">
-        <v>717.8557545770838</v>
+        <v>717.8557545770841</v>
       </c>
       <c r="BY3" t="n">
-        <v>1006.774421699311</v>
+        <v>1006.774421699313</v>
       </c>
       <c r="BZ3" t="n">
-        <v>344.8023910003636</v>
+        <v>344.8023910003639</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.9995308396560386</v>
+        <v>0.9995308396560382</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.832921428904525e-05</v>
+        <v>1.832921428904528e-05</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.02606721644043238</v>
+        <v>0.02606721644043243</v>
       </c>
       <c r="CD3" t="n">
-        <v>295.5933400569</v>
+        <v>295.5933400569003</v>
       </c>
       <c r="CE3" t="n">
-        <v>135127.5589680638</v>
+        <v>135127.5589681948</v>
       </c>
       <c r="CF3" t="n">
-        <v>1.593297439111477</v>
+        <v>1.593297439113021</v>
       </c>
       <c r="CG3" t="n">
-        <v>336974.4291069512</v>
+        <v>336974.4291069513</v>
       </c>
       <c r="CH3" t="n">
-        <v>421784.4310883888</v>
+        <v>421784.431088389</v>
       </c>
       <c r="CI3" t="n">
-        <v>3788.9524122532</v>
+        <v>3788.952412252922</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-698204.6677661828</v>
+        <v>-698204.6677661018</v>
       </c>
       <c r="CK3" t="n">
-        <v>717.8557545770838</v>
+        <v>717.8557545770841</v>
       </c>
       <c r="CL3" t="n">
-        <v>1006.774421699311</v>
+        <v>1006.774421699313</v>
       </c>
       <c r="CM3" t="n">
-        <v>1.402474543499954</v>
+        <v>1.402474543499957</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.9995308396560386</v>
+        <v>0.9995308396560382</v>
       </c>
       <c r="CO3" t="n">
-        <v>344.8023910003636</v>
+        <v>344.8023910003639</v>
       </c>
       <c r="CP3" t="n">
-        <v>189425.0434674043</v>
+        <v>189425.0434675882</v>
       </c>
       <c r="CQ3" t="n">
-        <v>5.27913301058356e-06</v>
+        <v>5.279133010578436e-06</v>
       </c>
       <c r="CR3" t="n">
-        <v>135064.871120358</v>
+        <v>135064.871120489</v>
       </c>
       <c r="CS3" t="n">
-        <v>7.403849659093719e-06</v>
+        <v>7.403849659086541e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.003395609216521669</v>
+        <v>0.003395609216521676</v>
       </c>
       <c r="CU3" t="n">
-        <v>1.832921428904525e-05</v>
+        <v>1.832921428904528e-05</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.02606721644043238</v>
+        <v>0.02606721644043243</v>
       </c>
       <c r="CW3" t="n">
-        <v>135127.5589680638</v>
+        <v>135127.5589681948</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.593297439111477</v>
+        <v>1.593297439113021</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.593297439111477</v>
+        <v>1.593297439113021</v>
       </c>
       <c r="CZ3" t="n">
-        <v>336974.4291069512</v>
+        <v>336974.4291069513</v>
       </c>
       <c r="DA3" t="n">
-        <v>421784.4310883888</v>
+        <v>421784.431088389</v>
       </c>
       <c r="DB3" t="n">
-        <v>3788.9524122532</v>
+        <v>3788.952412252922</v>
       </c>
       <c r="DC3" t="n">
-        <v>717.8557545770838</v>
+        <v>717.8557545770841</v>
       </c>
       <c r="DD3" t="n">
-        <v>1006.774421699311</v>
+        <v>1006.774421699313</v>
       </c>
       <c r="DE3" t="n">
-        <v>344.8023910003636</v>
+        <v>344.8023910003639</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.9995308396560386</v>
+        <v>0.9995308396560382</v>
       </c>
       <c r="DG3" t="n">
-        <v>1.832921428904525e-05</v>
+        <v>1.832921428904528e-05</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.02606721644043238</v>
+        <v>0.02606721644043243</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.01603672025691277</v>
+        <v>0.01603672025684693</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-1.826638727957805e-07</v>
+        <v>-1.826638728031845e-07</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.01379357719010241</v>
+        <v>0.01379357719010032</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.02515263942084537</v>
+        <v>0.02515263942087414</v>
       </c>
       <c r="DM3" t="n">
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.05498275420398776</v>
+        <v>0.05498275420394858</v>
       </c>
       <c r="DO3" t="n">
-        <v>6.824756038081858e-12</v>
+        <v>6.334106850136578e-12</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.8651581442825387</v>
+        <v>0.8651581442582104</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.8651581442825387</v>
+        <v>0.8651581442582104</v>
       </c>
       <c r="DR3" t="n">
-        <v>498904.0319641396</v>
+        <v>498904.0319578606</v>
       </c>
       <c r="DS3" t="n">
-        <v>2.743090699398715</v>
+        <v>2.743090699378967</v>
       </c>
       <c r="DT3" t="n">
         <v>421784.4310884894</v>
@@ -8370,418 +8370,418 @@
         <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>1485.215247437649</v>
+        <v>1485.215247605811</v>
       </c>
       <c r="DW3" t="n">
         <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.00632445293323642</v>
+        <v>0.006324452933745898</v>
       </c>
       <c r="DY3" t="n">
-        <v>-7.114856908695948e-08</v>
+        <v>-7.114856909349547e-08</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.009987919798942075</v>
+        <v>0.009987919799761154</v>
       </c>
       <c r="EA3" t="n">
         <v>0</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.005469212868963287</v>
+        <v>0.005469212869409009</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.02460453034449839</v>
+        <v>0.02460453034440887</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.002167610488926437</v>
+        <v>0.002167610488659911</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.01188621339021743</v>
+        <v>0.01188621339022377</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.03204893958918546</v>
+        <v>0.0320489395890997</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.04266825628375128</v>
+        <v>0.04266825628343474</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.113375550096579</v>
+        <v>0.113375550095827</v>
       </c>
       <c r="EI3" t="n">
-        <v>-1.207579453099683e-10</v>
+        <v>-5.046979500988868e-11</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.9631018588363677</v>
+        <v>0.9631018588365728</v>
       </c>
       <c r="EK3" t="n">
-        <v>2.77029773050796</v>
+        <v>2.770297730504659</v>
       </c>
       <c r="EL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="EM3" t="n">
-        <v>148.1544009774269</v>
+        <v>148.1544009328437</v>
       </c>
       <c r="EN3" t="n">
-        <v>130.275750872789</v>
+        <v>130.275750848333</v>
       </c>
       <c r="EO3" t="n">
-        <v>-70.55462609575096</v>
+        <v>-70.55462604728947</v>
       </c>
       <c r="EP3" t="n">
-        <v>-28.43905015516947</v>
+        <v>-28.43905014319365</v>
       </c>
       <c r="EQ3" t="n">
-        <v>269.4451435748703</v>
+        <v>269.4451435206254</v>
       </c>
       <c r="ER3" t="n">
-        <v>130.275750872789</v>
+        <v>130.275750848333</v>
       </c>
       <c r="ES3" t="n">
-        <v>-235.857826095751</v>
+        <v>-235.8578260472895</v>
       </c>
       <c r="ET3" t="n">
-        <v>-61.08599395147005</v>
+        <v>-61.08599395103977</v>
       </c>
       <c r="EU3" t="n">
-        <v>232.3559345227813</v>
+        <v>232.3559345378319</v>
       </c>
       <c r="EV3" t="n">
-        <v>55847.67418665405</v>
+        <v>55847.67419797452</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.8379437831820133</v>
+        <v>0.8379437832975454</v>
       </c>
       <c r="EX3" t="n">
-        <v>291785.9600860278</v>
+        <v>291785.9600967812</v>
       </c>
       <c r="EY3" t="n">
-        <v>358434.433775489</v>
+        <v>358434.4337905631</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3801.291150585703</v>
+        <v>3801.291150592436</v>
       </c>
       <c r="FA3" t="n">
-        <v>-524818.1239120307</v>
+        <v>-524818.1239557326</v>
       </c>
       <c r="FB3" t="n">
-        <v>715.9584136012965</v>
+        <v>715.9584136015213</v>
       </c>
       <c r="FC3" t="n">
-        <v>1004.378133345417</v>
+        <v>1004.378133345707</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.402844235454067</v>
+        <v>1.40284423545403</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.999263924898572</v>
+        <v>0.999263924898625</v>
       </c>
       <c r="FF3" t="n">
-        <v>305.6611132481448</v>
+        <v>305.6611132580566</v>
       </c>
       <c r="FG3" t="n">
-        <v>78288.01187032515</v>
+        <v>78288.01188619647</v>
       </c>
       <c r="FH3" t="n">
-        <v>1.277334774647722e-05</v>
+        <v>1.277334774388769e-05</v>
       </c>
       <c r="FI3" t="n">
-        <v>55806.63190663161</v>
+        <v>55806.63191794675</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.791901725359577e-05</v>
+        <v>1.791901724996258e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.004317179698446281</v>
+        <v>0.004317179698166892</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.510192230054418e-05</v>
+        <v>1.51019223013499e-05</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.0211421037211624</v>
+        <v>0.02114210372237892</v>
       </c>
       <c r="FN3" t="n">
-        <v>55847.67418665405</v>
+        <v>55847.67419797452</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.8379437831820133</v>
+        <v>0.8379437832975454</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.8379437831820133</v>
+        <v>0.8379437832975454</v>
       </c>
       <c r="FQ3" t="n">
-        <v>291785.9600860278</v>
+        <v>291785.9600967812</v>
       </c>
       <c r="FR3" t="n">
-        <v>358434.433775489</v>
+        <v>358434.4337905631</v>
       </c>
       <c r="FS3" t="n">
-        <v>3801.291150585703</v>
+        <v>3801.291150592436</v>
       </c>
       <c r="FT3" t="n">
-        <v>715.9584136012965</v>
+        <v>715.9584136015213</v>
       </c>
       <c r="FU3" t="n">
-        <v>1004.378133345417</v>
+        <v>1004.378133345707</v>
       </c>
       <c r="FV3" t="n">
-        <v>305.6611132481448</v>
+        <v>305.6611132580566</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.999263924898572</v>
+        <v>0.999263924898625</v>
       </c>
       <c r="FX3" t="n">
-        <v>1.510192230054418e-05</v>
+        <v>1.51019223013499e-05</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.0211421037211624</v>
+        <v>0.02114210372237892</v>
       </c>
       <c r="FZ3" t="n">
-        <v>243.3162036923593</v>
+        <v>243.3162037005187</v>
       </c>
       <c r="GA3" t="n">
-        <v>65596.84680216036</v>
+        <v>65596.84681057047</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.9398584230901156</v>
+        <v>0.9398584231790804</v>
       </c>
       <c r="GC3" t="n">
-        <v>299614.9054693919</v>
+        <v>299614.9054752184</v>
       </c>
       <c r="GD3" t="n">
-        <v>369409.2970400794</v>
+        <v>369409.2970482476</v>
       </c>
       <c r="GE3" t="n">
-        <v>3801.291150594348</v>
+        <v>3801.291150591142</v>
       </c>
       <c r="GF3" t="n">
-        <v>-555506.4348518981</v>
+        <v>-555506.4348739659</v>
       </c>
       <c r="GG3" t="n">
-        <v>716.1491613432191</v>
+        <v>716.149161343382</v>
       </c>
       <c r="GH3" t="n">
-        <v>1004.639792993617</v>
+        <v>1004.639792993849</v>
       </c>
       <c r="GI3" t="n">
-        <v>1.402835955444395</v>
+        <v>1.4028359554444</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9992939630949785</v>
+        <v>0.999293963094996</v>
       </c>
       <c r="GK3" t="n">
-        <v>312.7956381694342</v>
+        <v>312.7956381746849</v>
       </c>
       <c r="GL3" t="n">
-        <v>91956.79254016266</v>
+        <v>91956.79255195434</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.087467246710725e-05</v>
+        <v>1.087467246571278e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>65550.63846437572</v>
+        <v>65550.63847278109</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.525538154053926e-05</v>
+        <v>1.52553815385831e-05</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.004123092682074393</v>
+        <v>0.004123092681936552</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.568368842391906e-05</v>
+        <v>1.56836884243485e-05</v>
       </c>
       <c r="GR3" t="n">
-        <v>0.02202228900940812</v>
+        <v>0.02202228901005918</v>
       </c>
       <c r="GS3" t="n">
-        <v>65596.84680216036</v>
+        <v>65596.84681057047</v>
       </c>
       <c r="GT3" t="n">
-        <v>0.9398584230901156</v>
+        <v>0.9398584231790804</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.9398584230901156</v>
+        <v>0.9398584231790804</v>
       </c>
       <c r="GV3" t="n">
-        <v>299614.9054693919</v>
+        <v>299614.9054752184</v>
       </c>
       <c r="GW3" t="n">
-        <v>369409.2970400794</v>
+        <v>369409.2970482476</v>
       </c>
       <c r="GX3" t="n">
-        <v>3801.291150594348</v>
+        <v>3801.291150591142</v>
       </c>
       <c r="GY3" t="n">
-        <v>716.1491613432191</v>
+        <v>716.149161343382</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1004.639792993617</v>
+        <v>1004.639792993849</v>
       </c>
       <c r="HA3" t="n">
-        <v>312.7956381694342</v>
+        <v>312.7956381746849</v>
       </c>
       <c r="HB3" t="n">
-        <v>0.9992939630949785</v>
+        <v>0.999293963094996</v>
       </c>
       <c r="HC3" t="n">
-        <v>1.568368842391906e-05</v>
+        <v>1.56836884243485e-05</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.02202228900940812</v>
+        <v>0.02202228901005918</v>
       </c>
       <c r="HE3" t="n">
-        <v>268.5987517926215</v>
+        <v>268.5987517928817</v>
       </c>
       <c r="HF3" t="n">
-        <v>92640.69424208539</v>
+        <v>92640.69424343141</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.202278025750914</v>
+        <v>1.202278025767225</v>
       </c>
       <c r="HH3" t="n">
-        <v>317680.4743422876</v>
+        <v>317680.4743424711</v>
       </c>
       <c r="HI3" t="n">
-        <v>394734.7764736305</v>
+        <v>394734.7764738883</v>
       </c>
       <c r="HJ3" t="n">
-        <v>3801.291150585703</v>
+        <v>3801.291150582497</v>
       </c>
       <c r="HK3" t="n">
-        <v>-626287.2817740275</v>
+        <v>-626287.2817738972</v>
       </c>
       <c r="HL3" t="n">
-        <v>716.7867281706922</v>
+        <v>716.7867281707038</v>
       </c>
       <c r="HM3" t="n">
-        <v>1005.444386846678</v>
+        <v>1005.444386846709</v>
       </c>
       <c r="HN3" t="n">
-        <v>1.402710663201964</v>
+        <v>1.402710663201985</v>
       </c>
       <c r="HO3" t="n">
-        <v>0.9993938469743051</v>
+        <v>0.9993938469742997</v>
       </c>
       <c r="HP3" t="n">
-        <v>328.6634881138223</v>
+        <v>328.6634881139822</v>
       </c>
       <c r="HQ3" t="n">
-        <v>129869.6977347981</v>
+        <v>129869.6977366863</v>
       </c>
       <c r="HR3" t="n">
-        <v>7.700025621389073e-06</v>
+        <v>7.700025621277124e-06</v>
       </c>
       <c r="HS3" t="n">
-        <v>92584.80821579049</v>
+        <v>92584.80821713517</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.080090804605078e-05</v>
+        <v>1.080090804589391e-05</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.003735701238597285</v>
+        <v>0.003735701238593815</v>
       </c>
       <c r="HV3" t="n">
-        <v>1.698832642412822e-05</v>
+        <v>1.698832642414155e-05</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.02400816045498293</v>
+        <v>0.02400816045500341</v>
       </c>
       <c r="HX3" t="n">
-        <v>92640.69424208539</v>
+        <v>92640.69424343141</v>
       </c>
       <c r="HY3" t="n">
-        <v>1.202278025750914</v>
+        <v>1.202278025767225</v>
       </c>
       <c r="HZ3" t="n">
-        <v>1.202278025750914</v>
+        <v>1.202278025767225</v>
       </c>
       <c r="IA3" t="n">
-        <v>317680.4743422876</v>
+        <v>317680.4743424711</v>
       </c>
       <c r="IB3" t="n">
-        <v>394734.7764736305</v>
+        <v>394734.7764738883</v>
       </c>
       <c r="IC3" t="n">
-        <v>3801.291150585703</v>
+        <v>3801.291150582497</v>
       </c>
       <c r="ID3" t="n">
-        <v>716.7867281706922</v>
+        <v>716.7867281707038</v>
       </c>
       <c r="IE3" t="n">
-        <v>1005.444386846678</v>
+        <v>1005.444386846709</v>
       </c>
       <c r="IF3" t="n">
-        <v>328.6634881138223</v>
+        <v>328.6634881139822</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.9993938469743051</v>
+        <v>0.9993938469742997</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.698832642412822e-05</v>
+        <v>1.698832642414155e-05</v>
       </c>
       <c r="II3" t="n">
-        <v>0.02400816045498293</v>
+        <v>0.02400816045500341</v>
       </c>
       <c r="IJ3" t="n">
-        <v>0.02448487146978578</v>
+        <v>0.02448487147009686</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.002204429596415247</v>
+        <v>0.002204429595876891</v>
       </c>
       <c r="IL3" t="n">
-        <v>0.01189216561972087</v>
+        <v>0.01189216561970382</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.03201488114762176</v>
+        <v>0.03201488114766971</v>
       </c>
       <c r="IN3" t="n">
-        <v>0.04270408033007254</v>
+        <v>0.04270408032961561</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.1133004281636162</v>
+        <v>0.1133004281629629</v>
       </c>
       <c r="IP3" t="n">
-        <v>-1.731451093611724e-11</v>
+        <v>-2.558525613594043e-11</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.4847015029260551</v>
+        <v>0.4847015027644793</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.881515940027761</v>
+        <v>0.8815159398217084</v>
       </c>
       <c r="IS3" t="n">
-        <v>389607.603126911</v>
+        <v>389607.6030814059</v>
       </c>
       <c r="IT3" t="n">
-        <v>2.743090700137039</v>
+        <v>2.743090699963003</v>
       </c>
       <c r="IU3" t="n">
-        <v>381072.2025084102</v>
+        <v>381072.2025087682</v>
       </c>
       <c r="IV3" t="n">
         <v>0</v>
       </c>
       <c r="IW3" t="n">
-        <v>2819.835633911833</v>
+        <v>2819.83563552401</v>
       </c>
       <c r="IX3" t="n">
-        <v>6.4689397907608</v>
+        <v>6.468939790381448</v>
       </c>
       <c r="IY3" t="n">
-        <v>0.00897466280290188</v>
+        <v>0.008974662807774723</v>
       </c>
       <c r="IZ3" t="n">
-        <v>0.0007906500532125745</v>
+        <v>0.0007906500535475218</v>
       </c>
       <c r="JA3" t="n">
-        <v>0.01169005959375389</v>
+        <v>0.01169005960011233</v>
       </c>
       <c r="JB3" t="n">
-        <v>0.0155635245693723</v>
+        <v>0.01556352457776377</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.004335573802342107</v>
+        <v>0.004335573804714217</v>
       </c>
     </row>
   </sheetData>
@@ -8820,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4088683474004037</v>
+        <v>0.4088683473074192</v>
       </c>
     </row>
     <row r="3">
@@ -8828,7 +8828,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4292546933658828</v>
+        <v>0.4292546933586491</v>
       </c>
     </row>
   </sheetData>
@@ -9609,16 +9609,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H2" t="n">
-        <v>1.494281741696882e-11</v>
+        <v>1.644259603653577e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>1.732577028841542e-10</v>
+        <v>1.209041913266735e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
